--- a/Data/Model 0.1.xlsx
+++ b/Data/Model 0.1.xlsx
@@ -501,8 +501,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -596,7 +597,2269 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-NL"/>
-              <a:t>Model 0.1</a:t>
+              <a:t>Mean</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> values</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model 0.1'!$A$1:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model 0.1'!$B$1:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94874099999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94453399999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93840400000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.923956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91777799999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90808699999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90356700000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89607499999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88901399999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89051100000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88764200000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87782199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87720799999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.86440399999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84855899999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.82747999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.81955</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.81252100000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.81530100000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.80261300000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.79834000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.78887799999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.79000599999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.78092300000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.78048300000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.78375799999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.78351700000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.76890099999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.77057500000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.77045600000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.75922299999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.76812599999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.75785400000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.75300800000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.76327699999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.76265799999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.75865400000000005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.74321300000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.735815</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.74043599999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.74085599999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.74498500000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.73846800000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.737236</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.74704999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.75213200000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.75453599999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.75555899999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.74756199999999995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.74191200000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.73500699999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.73305100000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.73951299999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.73322799999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.73237799999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.73436100000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.73509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.72958100000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.72660999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.72177199999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.72172599999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.72114500000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.71397900000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.72046399999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.72865999999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.72082999999999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.72170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.70780399999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69950400000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.71508099999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71847899999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.69214799999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.69393400000000005</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.69449799999999995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.68421900000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.67128900000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.66786400000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.66508800000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.65867600000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.65093000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.65327400000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.64940799999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.64491799999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.64620200000000005</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.63793800000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.64548300000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.63944100000000004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.63864200000000004</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.64308500000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.63502800000000004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.63083500000000003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.62353499999999995</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.63955399999999996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.64780400000000005</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.64963700000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.65502099999999996</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.66130800000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.64661000000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.64163099999999995</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.64441700000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FC8-4219-A902-455916D23A0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model 0.1'!$A$1:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model 0.1'!$D$1:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.111039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.159328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19351399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23888899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25938699999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28411599999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31525500000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33067999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35164800000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37684499999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38721</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.397951</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.42649799999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.44608500000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45074599999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.456563</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46092100000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46661599999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.47038400000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.48674000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.49926100000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.50935399999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.51549199999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52392300000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.52774299999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.53507400000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.56139399999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.57326900000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.57777699999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.59037799999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.60245400000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.60329200000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.59748900000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.60527500000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.60330099999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.602244</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.61531800000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000100000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.604491</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.61791799999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.61561900000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.61395500000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.61101300000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.61535200000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.61261900000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.61599000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.61693299999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.62407400000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.63245600000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.64014400000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.63990400000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.64982899999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.64900100000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.65728900000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.66319099999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.66687799999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.68090099999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.69328699999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.66352199999999995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.64331799999999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.65317999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.68293000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.71485200000000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.70872800000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.70733800000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.68390099999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.66897200000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.67501900000000004</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.666632</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.66754000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.65812099999999996</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.66676299999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.68013400000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.68122499999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.68150500000000003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.68435199999999996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.68160399999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.67260900000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.66353600000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.67291599999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.65998599999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.65678800000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.65658000000000005</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.66696800000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.68351099999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.69393499999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.68986700000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.68738900000000003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.69026900000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.68279699999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.68009399999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.67630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.68650100000000003</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.67903500000000006</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.68237599999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.69717200000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.67780700000000005</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.67575600000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.671983</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.667987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4FC8-4219-A902-455916D23A0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model 0.1'!$A$1:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model 0.1'!$F$1:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66920400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67193599999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66486800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66935299999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65782600000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65578599999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65441700000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65171299999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.646845</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65492799999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65347599999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64701399999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.64818100000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66736200000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66985700000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66626200000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.65461899999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.65292300000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.65025299999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.63902899999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.63634199999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.63479200000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.63574699999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.63080099999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.64129599999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.64686999999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.65276500000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66064100000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.663219</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.66142699999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.665709</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.653868</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.65097700000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.659084</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.66409399999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.65768800000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.673211</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.67036300000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.66115199999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.66270099999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.68471800000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.67345299999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.65951800000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.67122000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.66949400000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.65485099999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.66761700000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.65645600000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.66417800000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.65465799999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.65484100000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.66336700000000004</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.68632199999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.69133</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.69559800000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.68950599999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.69034700000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.69201800000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.69847800000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.70055999999999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.69583499999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.69627399999999995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.69386000000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.69418899999999994</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.68682900000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.69083300000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.68582100000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.67398400000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.67334499999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.66614700000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.66094200000000003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.66350500000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.66596100000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.658443</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.66211600000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.67243299999999995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.66939700000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.66788700000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.66299699999999995</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.64854699999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.63801399999999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.64426700000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.63465400000000005</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.632575</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.62775099999999995</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.65999099999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.66299799999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.66491199999999995</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.65595099999999995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.63488199999999995</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.68530999999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.67961099999999997</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.67095499999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.67584200000000005</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.69181400000000004</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.65003299999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.63237699999999997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.65154699999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.68671300000000002</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.66108100000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4FC8-4219-A902-455916D23A0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1976841263"/>
+        <c:axId val="1976843343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1976841263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1976843343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1976843343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1976841263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Standard deviations</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -640,9 +2903,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Pc = 0.8</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -665,666 +2925,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'Model 0.1'!$C:$C</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="1048576"/>
-                  <c:pt idx="0">
-                    <c:v>0.213203</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.21989500000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.22578200000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.22308700000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.23044000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.23039200000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.22847799999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.226658</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.22838800000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.22558700000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0.229545</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0.23091999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0.235543</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0.23712800000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0.24757799999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>0.246976</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0.24479200000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0.246421</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>0.243501</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0.24487800000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>0.24785499999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0.25049700000000003</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0.25536799999999998</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0.25607000000000002</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>0.25323699999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0.252218</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>0.248999</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>0.25026599999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>0.24776200000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>0.24609800000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>0.24863399999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>0.24997800000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>0.246082</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>0.24293500000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>0.240901</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>0.24235100000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>0.24265700000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>0.24748899999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>0.250116</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>0.24948100000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>0.247113</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>0.24594199999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>0.24497099999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>0.246478</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>0.245532</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>0.24978500000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>0.246228</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>0.24695700000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>0.24379200000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>0.24367</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>0.24393799999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>0.24574499999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>0.24801699999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>0.24965999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>0.24615300000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>0.242975</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>0.24299499999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>0.24521499999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>0.243316</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>0.24367800000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>0.239701</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>0.23493900000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>0.23544300000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>0.232875</c:v>
-                  </c:pt>
-                  <c:pt idx="64">
-                    <c:v>0.22922600000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="65">
-                    <c:v>0.22888500000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>0.22095999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>0.22176199999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="68">
-                    <c:v>0.21978200000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="69">
-                    <c:v>0.220189</c:v>
-                  </c:pt>
-                  <c:pt idx="70">
-                    <c:v>0.219856</c:v>
-                  </c:pt>
-                  <c:pt idx="71">
-                    <c:v>0.219499</c:v>
-                  </c:pt>
-                  <c:pt idx="72">
-                    <c:v>0.22115499999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="73">
-                    <c:v>0.22065000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="74">
-                    <c:v>0.221411</c:v>
-                  </c:pt>
-                  <c:pt idx="75">
-                    <c:v>0.22416900000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="76">
-                    <c:v>0.21443100000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="77">
-                    <c:v>0.21605099999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="78">
-                    <c:v>0.215502</c:v>
-                  </c:pt>
-                  <c:pt idx="79">
-                    <c:v>0.21889900000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="80">
-                    <c:v>0.216442</c:v>
-                  </c:pt>
-                  <c:pt idx="81">
-                    <c:v>0.21770300000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="82">
-                    <c:v>0.213119</c:v>
-                  </c:pt>
-                  <c:pt idx="83">
-                    <c:v>0.211205</c:v>
-                  </c:pt>
-                  <c:pt idx="84">
-                    <c:v>0.21556800000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="85">
-                    <c:v>0.21554899999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="86">
-                    <c:v>0.210892</c:v>
-                  </c:pt>
-                  <c:pt idx="87">
-                    <c:v>0.20990800000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="88">
-                    <c:v>0.214641</c:v>
-                  </c:pt>
-                  <c:pt idx="89">
-                    <c:v>0.21399199999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="90">
-                    <c:v>0.215563</c:v>
-                  </c:pt>
-                  <c:pt idx="91">
-                    <c:v>0.21457000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="92">
-                    <c:v>0.21496199999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="93">
-                    <c:v>0.219637</c:v>
-                  </c:pt>
-                  <c:pt idx="94">
-                    <c:v>0.214444</c:v>
-                  </c:pt>
-                  <c:pt idx="95">
-                    <c:v>0.21640599999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="96">
-                    <c:v>0.21577399999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="97">
-                    <c:v>0.21117900000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="98">
-                    <c:v>0.213532</c:v>
-                  </c:pt>
-                  <c:pt idx="99">
-                    <c:v>0.20829900000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="100">
-                    <c:v>0.20852899999999999</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'Model 0.1'!$C:$C</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="1048576"/>
-                  <c:pt idx="0">
-                    <c:v>0.213203</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.21989500000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.22578200000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.22308700000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.23044000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.23039200000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.22847799999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.226658</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.22838800000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.22558700000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0.229545</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0.23091999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0.235543</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0.23712800000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0.24757799999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>0.246976</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0.24479200000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0.246421</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>0.243501</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0.24487800000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>0.24785499999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0.25049700000000003</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0.25536799999999998</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0.25607000000000002</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>0.25323699999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0.252218</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>0.248999</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>0.25026599999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>0.24776200000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>0.24609800000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>0.24863399999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>0.24997800000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>0.246082</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>0.24293500000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>0.240901</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>0.24235100000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>0.24265700000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>0.24748899999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>0.250116</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>0.24948100000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>0.247113</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>0.24594199999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>0.24497099999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>0.246478</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>0.245532</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>0.24978500000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>0.246228</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>0.24695700000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>0.24379200000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>0.24367</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>0.24393799999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>0.24574499999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>0.24801699999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>0.24965999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>0.24615300000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>0.242975</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>0.24299499999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>0.24521499999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>0.243316</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>0.24367800000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>0.239701</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>0.23493900000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>0.23544300000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>0.232875</c:v>
-                  </c:pt>
-                  <c:pt idx="64">
-                    <c:v>0.22922600000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="65">
-                    <c:v>0.22888500000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>0.22095999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>0.22176199999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="68">
-                    <c:v>0.21978200000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="69">
-                    <c:v>0.220189</c:v>
-                  </c:pt>
-                  <c:pt idx="70">
-                    <c:v>0.219856</c:v>
-                  </c:pt>
-                  <c:pt idx="71">
-                    <c:v>0.219499</c:v>
-                  </c:pt>
-                  <c:pt idx="72">
-                    <c:v>0.22115499999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="73">
-                    <c:v>0.22065000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="74">
-                    <c:v>0.221411</c:v>
-                  </c:pt>
-                  <c:pt idx="75">
-                    <c:v>0.22416900000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="76">
-                    <c:v>0.21443100000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="77">
-                    <c:v>0.21605099999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="78">
-                    <c:v>0.215502</c:v>
-                  </c:pt>
-                  <c:pt idx="79">
-                    <c:v>0.21889900000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="80">
-                    <c:v>0.216442</c:v>
-                  </c:pt>
-                  <c:pt idx="81">
-                    <c:v>0.21770300000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="82">
-                    <c:v>0.213119</c:v>
-                  </c:pt>
-                  <c:pt idx="83">
-                    <c:v>0.211205</c:v>
-                  </c:pt>
-                  <c:pt idx="84">
-                    <c:v>0.21556800000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="85">
-                    <c:v>0.21554899999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="86">
-                    <c:v>0.210892</c:v>
-                  </c:pt>
-                  <c:pt idx="87">
-                    <c:v>0.20990800000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="88">
-                    <c:v>0.214641</c:v>
-                  </c:pt>
-                  <c:pt idx="89">
-                    <c:v>0.21399199999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="90">
-                    <c:v>0.215563</c:v>
-                  </c:pt>
-                  <c:pt idx="91">
-                    <c:v>0.21457000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="92">
-                    <c:v>0.21496199999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="93">
-                    <c:v>0.219637</c:v>
-                  </c:pt>
-                  <c:pt idx="94">
-                    <c:v>0.214444</c:v>
-                  </c:pt>
-                  <c:pt idx="95">
-                    <c:v>0.21640599999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="96">
-                    <c:v>0.21577399999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="97">
-                    <c:v>0.21117900000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="98">
-                    <c:v>0.213532</c:v>
-                  </c:pt>
-                  <c:pt idx="99">
-                    <c:v>0.20829900000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="100">
-                    <c:v>0.20852899999999999</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:errBars>
-            <c:errDir val="x"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="fixedVal"/>
-            <c:noEndCap val="0"/>
-            <c:val val="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'Model 0.1'!$A$1:$A$101</c:f>
@@ -1335,616 +2935,616 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>2900</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>3300</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>3800</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>3900</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>4100</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>4200</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>4300</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>4400</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>4600</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>4700</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>4900</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>5200</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>5400</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>5800</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>5900</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>6100</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>6300</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>6400</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>6600</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>6700</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>6800</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>6900</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>7100</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>7300</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>7600</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>7700</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>7800</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>7900</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>8200</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>8300</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>8400</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>8600</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>8800</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>8900</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>9100</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>9200</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>9300</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>9400</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>9600</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>9700</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>9800</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>9900</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model 0.1'!$B$1:$B$101</c:f>
+              <c:f>'Model 0.1'!$C$1:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0.82155599999999995</c:v>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>1.6764399999999999E-14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80527400000000005</c:v>
+                  <c:v>9.7319799999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79513299999999998</c:v>
+                  <c:v>1.3829899999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79355399999999998</c:v>
+                  <c:v>1.4370600000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77929899999999996</c:v>
+                  <c:v>1.4255800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78438399999999997</c:v>
+                  <c:v>1.2168699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.77867299999999995</c:v>
+                  <c:v>1.36904E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77461999999999998</c:v>
+                  <c:v>1.8422500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77144000000000001</c:v>
+                  <c:v>1.78573E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.765096</c:v>
+                  <c:v>1.8934400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.75754999999999995</c:v>
+                  <c:v>1.53922E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.75740399999999997</c:v>
+                  <c:v>2.6225100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.74152399999999996</c:v>
+                  <c:v>2.6530000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.74934000000000001</c:v>
+                  <c:v>2.5620899999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.73347899999999999</c:v>
+                  <c:v>2.8724300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.73399700000000001</c:v>
+                  <c:v>3.3741E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.740595</c:v>
+                  <c:v>1.67729E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.74382400000000004</c:v>
+                  <c:v>1.8393199999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.74430399999999997</c:v>
+                  <c:v>1.9888699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.74618099999999998</c:v>
+                  <c:v>1.30863E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.74499400000000005</c:v>
+                  <c:v>1.4070600000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.73429800000000001</c:v>
+                  <c:v>2.2827400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.72053500000000004</c:v>
+                  <c:v>1.92681E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.71834200000000004</c:v>
+                  <c:v>1.45811E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.71428599999999998</c:v>
+                  <c:v>1.78192E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.71864499999999998</c:v>
+                  <c:v>1.77258E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.70941799999999999</c:v>
+                  <c:v>2.09161E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.71334900000000001</c:v>
+                  <c:v>2.33739E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.71317699999999995</c:v>
+                  <c:v>1.6126100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.72114199999999995</c:v>
+                  <c:v>1.6809600000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.70902100000000001</c:v>
+                  <c:v>1.87125E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.70536200000000004</c:v>
+                  <c:v>1.84064E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.71141500000000002</c:v>
+                  <c:v>2.56277E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.700345</c:v>
+                  <c:v>2.1716200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.70419200000000004</c:v>
+                  <c:v>1.74938E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.71793499999999999</c:v>
+                  <c:v>2.57346E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.70955699999999999</c:v>
+                  <c:v>2.6383899999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.70774300000000001</c:v>
+                  <c:v>3.2127999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.71067000000000002</c:v>
+                  <c:v>2.0923299999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.69050800000000001</c:v>
+                  <c:v>1.8268400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.68818100000000004</c:v>
+                  <c:v>2.3059199999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.66783000000000003</c:v>
+                  <c:v>3.0616299999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.67682200000000003</c:v>
+                  <c:v>1.9742900000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.68358099999999999</c:v>
+                  <c:v>2.155E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.68073399999999995</c:v>
+                  <c:v>1.9721099999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.679122</c:v>
+                  <c:v>1.54643E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.67921500000000001</c:v>
+                  <c:v>1.9180699999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.66991299999999998</c:v>
+                  <c:v>1.97571E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.66746000000000005</c:v>
+                  <c:v>2.31729E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.662188</c:v>
+                  <c:v>2.6862400000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.65689399999999998</c:v>
+                  <c:v>2.0009900000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.66370399999999996</c:v>
+                  <c:v>2.5667800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.66457999999999995</c:v>
+                  <c:v>1.6515999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.66631600000000002</c:v>
+                  <c:v>1.5629899999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.66229300000000002</c:v>
+                  <c:v>1.79764E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.66364599999999996</c:v>
+                  <c:v>1.7399700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.66508900000000004</c:v>
+                  <c:v>1.8926100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.66712000000000005</c:v>
+                  <c:v>2.1980599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.66726799999999997</c:v>
+                  <c:v>1.93388E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.65030500000000002</c:v>
+                  <c:v>2.1758699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.65973300000000001</c:v>
+                  <c:v>2.09792E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.650065</c:v>
+                  <c:v>2.11007E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.66267900000000002</c:v>
+                  <c:v>1.6807099999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.66327800000000003</c:v>
+                  <c:v>1.31596E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.65978400000000004</c:v>
+                  <c:v>1.5933200000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.65363700000000002</c:v>
+                  <c:v>1.7776400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.65327299999999999</c:v>
+                  <c:v>2.3975099999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.65520699999999998</c:v>
+                  <c:v>2.4274899999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.64097700000000002</c:v>
+                  <c:v>3.2436300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.64338700000000004</c:v>
+                  <c:v>2.0628400000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.63943499999999998</c:v>
+                  <c:v>3.1761900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.64648300000000003</c:v>
+                  <c:v>3.6566899999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.64757500000000001</c:v>
+                  <c:v>2.6040899999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.65914600000000001</c:v>
+                  <c:v>2.59566E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.65260200000000002</c:v>
+                  <c:v>3.0014099999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.65528500000000001</c:v>
+                  <c:v>2.84482E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.66765200000000002</c:v>
+                  <c:v>2.2110999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.659667</c:v>
+                  <c:v>1.4726400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.67567299999999997</c:v>
+                  <c:v>1.7947600000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.67847400000000002</c:v>
+                  <c:v>1.2462000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.66857100000000003</c:v>
+                  <c:v>1.5946200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.67339700000000002</c:v>
+                  <c:v>2.0186099999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.67617099999999997</c:v>
+                  <c:v>1.84467E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.66974599999999995</c:v>
+                  <c:v>1.7754800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.65718799999999999</c:v>
+                  <c:v>1.6758100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.66919300000000004</c:v>
+                  <c:v>1.6420400000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.66657</c:v>
+                  <c:v>1.2111500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.668327</c:v>
+                  <c:v>1.6473100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.666991</c:v>
+                  <c:v>1.7276300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.65957900000000003</c:v>
+                  <c:v>1.6684000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.66104300000000005</c:v>
+                  <c:v>2.54846E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.67443600000000004</c:v>
+                  <c:v>2.8479600000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.67186999999999997</c:v>
+                  <c:v>3.6466800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.66726700000000005</c:v>
+                  <c:v>5.0549400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.65331799999999995</c:v>
+                  <c:v>4.6542899999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.66051400000000005</c:v>
+                  <c:v>3.1646800000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.66312099999999996</c:v>
+                  <c:v>2.33236E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.66486500000000004</c:v>
+                  <c:v>1.7763500000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.67633100000000002</c:v>
+                  <c:v>1.7026099999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.68044199999999999</c:v>
+                  <c:v>8.3909699999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.67752999999999997</c:v>
+                  <c:v>1.2936400000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1952,16 +3552,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6483-4EC6-BD58-4CE09FADAE80}"/>
+              <c16:uniqueId val="{00000000-8420-452A-BF73-DA0307D39C48}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Pc = 0.2</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -1984,666 +3581,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'Model 0.1'!$E:$E</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="1048576"/>
-                  <c:pt idx="0">
-                    <c:v>0.22070799999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.26490399999999997</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.28364600000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.28650300000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.27868900000000002</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.28190700000000002</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.27974399999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.28470699999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.284084</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.28943999999999998</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0.29205399999999998</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0.28694199999999997</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0.283744</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0.281584</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0.28345599999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>0.27738699999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0.27235100000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0.26932400000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>0.26028400000000002</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0.25519199999999997</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>0.24654400000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0.248197</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0.24546100000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0.24393799999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>0.24518699999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0.239538</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>0.234766</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>0.235648</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>0.23681099999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>0.23217099999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>0.22200400000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>0.23217399999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>0.23407500000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>0.23777100000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>0.22856699999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>0.229905</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>0.229849</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>0.235594</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>0.22933000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>0.22540299999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>0.23305600000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>0.23049</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>0.23929700000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>0.24094099999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>0.23503399999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>0.22672500000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>0.222693</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>0.23310800000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>0.22601199999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>0.215724</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>0.21648000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>0.22297900000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>0.224276</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>0.22169</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>0.22661200000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>0.22476399999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>0.232908</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>0.228127</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>0.232103</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>0.226966</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>0.229764</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>0.23248099999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>0.23360900000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>0.23779900000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="64">
-                    <c:v>0.227465</c:v>
-                  </c:pt>
-                  <c:pt idx="65">
-                    <c:v>0.23120299999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>0.22498000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>0.21884600000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="68">
-                    <c:v>0.21482499999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="69">
-                    <c:v>0.210842</c:v>
-                  </c:pt>
-                  <c:pt idx="70">
-                    <c:v>0.20640800000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="71">
-                    <c:v>0.20308799999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="72">
-                    <c:v>0.19514400000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="73">
-                    <c:v>0.203851</c:v>
-                  </c:pt>
-                  <c:pt idx="74">
-                    <c:v>0.20191500000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="75">
-                    <c:v>0.20513200000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="76">
-                    <c:v>0.19278200000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="77">
-                    <c:v>0.18846499999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="78">
-                    <c:v>0.18521899999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="79">
-                    <c:v>0.182254</c:v>
-                  </c:pt>
-                  <c:pt idx="80">
-                    <c:v>0.187447</c:v>
-                  </c:pt>
-                  <c:pt idx="81">
-                    <c:v>0.193412</c:v>
-                  </c:pt>
-                  <c:pt idx="82">
-                    <c:v>0.19090299999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="83">
-                    <c:v>0.19094700000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="84">
-                    <c:v>0.19089400000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="85">
-                    <c:v>0.19392400000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="86">
-                    <c:v>0.190635</c:v>
-                  </c:pt>
-                  <c:pt idx="87">
-                    <c:v>0.19320999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="88">
-                    <c:v>0.19389899999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="89">
-                    <c:v>0.19655400000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="90">
-                    <c:v>0.20468500000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="91">
-                    <c:v>0.202127</c:v>
-                  </c:pt>
-                  <c:pt idx="92">
-                    <c:v>0.20291600000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="93">
-                    <c:v>0.21107999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="94">
-                    <c:v>0.212149</c:v>
-                  </c:pt>
-                  <c:pt idx="95">
-                    <c:v>0.21123800000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="96">
-                    <c:v>0.22101499999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="97">
-                    <c:v>0.21664</c:v>
-                  </c:pt>
-                  <c:pt idx="98">
-                    <c:v>0.22090799999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="99">
-                    <c:v>0.221528</c:v>
-                  </c:pt>
-                  <c:pt idx="100">
-                    <c:v>0.21555299999999999</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'Model 0.1'!$E:$E</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="1048576"/>
-                  <c:pt idx="0">
-                    <c:v>0.22070799999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.26490399999999997</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.28364600000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.28650300000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.27868900000000002</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.28190700000000002</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.27974399999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.28470699999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.284084</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.28943999999999998</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0.29205399999999998</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0.28694199999999997</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0.283744</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0.281584</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0.28345599999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>0.27738699999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0.27235100000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0.26932400000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>0.26028400000000002</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0.25519199999999997</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>0.24654400000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0.248197</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0.24546100000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0.24393799999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>0.24518699999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0.239538</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>0.234766</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>0.235648</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>0.23681099999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>0.23217099999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>0.22200400000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>0.23217399999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>0.23407500000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>0.23777100000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>0.22856699999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>0.229905</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>0.229849</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>0.235594</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>0.22933000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>0.22540299999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>0.23305600000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>0.23049</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>0.23929700000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>0.24094099999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>0.23503399999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>0.22672500000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>0.222693</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>0.23310800000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>0.22601199999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>0.215724</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>0.21648000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>0.22297900000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>0.224276</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>0.22169</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>0.22661200000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>0.22476399999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>0.232908</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>0.228127</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>0.232103</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>0.226966</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>0.229764</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>0.23248099999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>0.23360900000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>0.23779900000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="64">
-                    <c:v>0.227465</c:v>
-                  </c:pt>
-                  <c:pt idx="65">
-                    <c:v>0.23120299999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>0.22498000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>0.21884600000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="68">
-                    <c:v>0.21482499999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="69">
-                    <c:v>0.210842</c:v>
-                  </c:pt>
-                  <c:pt idx="70">
-                    <c:v>0.20640800000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="71">
-                    <c:v>0.20308799999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="72">
-                    <c:v>0.19514400000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="73">
-                    <c:v>0.203851</c:v>
-                  </c:pt>
-                  <c:pt idx="74">
-                    <c:v>0.20191500000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="75">
-                    <c:v>0.20513200000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="76">
-                    <c:v>0.19278200000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="77">
-                    <c:v>0.18846499999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="78">
-                    <c:v>0.18521899999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="79">
-                    <c:v>0.182254</c:v>
-                  </c:pt>
-                  <c:pt idx="80">
-                    <c:v>0.187447</c:v>
-                  </c:pt>
-                  <c:pt idx="81">
-                    <c:v>0.193412</c:v>
-                  </c:pt>
-                  <c:pt idx="82">
-                    <c:v>0.19090299999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="83">
-                    <c:v>0.19094700000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="84">
-                    <c:v>0.19089400000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="85">
-                    <c:v>0.19392400000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="86">
-                    <c:v>0.190635</c:v>
-                  </c:pt>
-                  <c:pt idx="87">
-                    <c:v>0.19320999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="88">
-                    <c:v>0.19389899999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="89">
-                    <c:v>0.19655400000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="90">
-                    <c:v>0.20468500000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="91">
-                    <c:v>0.202127</c:v>
-                  </c:pt>
-                  <c:pt idx="92">
-                    <c:v>0.20291600000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="93">
-                    <c:v>0.21107999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="94">
-                    <c:v>0.212149</c:v>
-                  </c:pt>
-                  <c:pt idx="95">
-                    <c:v>0.21123800000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="96">
-                    <c:v>0.22101499999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="97">
-                    <c:v>0.21664</c:v>
-                  </c:pt>
-                  <c:pt idx="98">
-                    <c:v>0.22090799999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="99">
-                    <c:v>0.221528</c:v>
-                  </c:pt>
-                  <c:pt idx="100">
-                    <c:v>0.21555299999999999</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:errBars>
-            <c:errDir val="x"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="fixedVal"/>
-            <c:noEndCap val="0"/>
-            <c:val val="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'Model 0.1'!$A$1:$A$101</c:f>
@@ -2654,616 +3591,616 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>2900</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>3300</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>3800</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>3900</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>4100</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>4200</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>4300</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>4400</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>4600</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>4700</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>4900</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>5200</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>5400</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>5800</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>5900</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>6100</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>6300</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>6400</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>6600</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>6700</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>6800</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>6900</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>7100</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>7300</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>7600</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>7700</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>7800</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>7900</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>8200</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>8300</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>8400</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>8600</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>8800</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>8900</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>9100</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>9200</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>9300</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>9400</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>9600</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>9700</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>9800</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>9900</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model 0.1'!$D$1:$D$101</c:f>
+              <c:f>'Model 0.1'!$E$1:$E$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0.18612200000000001</c:v>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>7.0776700000000001E-16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27454499999999998</c:v>
+                  <c:v>1.09871E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34145700000000001</c:v>
+                  <c:v>9.4629099999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.385521</c:v>
+                  <c:v>1.9025799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40450199999999997</c:v>
+                  <c:v>1.5386199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46151799999999998</c:v>
+                  <c:v>1.5236899999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.489761</c:v>
+                  <c:v>2.0689599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.505915</c:v>
+                  <c:v>2.28328E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52896500000000002</c:v>
+                  <c:v>1.39562E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.53520299999999998</c:v>
+                  <c:v>1.8377500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.54845200000000005</c:v>
+                  <c:v>1.8891999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.55974999999999997</c:v>
+                  <c:v>1.8855199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.56616999999999995</c:v>
+                  <c:v>2.0382399999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.56979400000000002</c:v>
+                  <c:v>2.8814099999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.55965699999999996</c:v>
+                  <c:v>1.75598E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.56915800000000005</c:v>
+                  <c:v>1.3883299999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.58461200000000002</c:v>
+                  <c:v>1.4012200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.58863799999999999</c:v>
+                  <c:v>1.42262E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.61495599999999995</c:v>
+                  <c:v>2.0494700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.62867200000000001</c:v>
+                  <c:v>2.41614E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.63925200000000004</c:v>
+                  <c:v>2.3285500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.62922800000000001</c:v>
+                  <c:v>2.2875199999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.64385800000000004</c:v>
+                  <c:v>1.5895599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.64638300000000004</c:v>
+                  <c:v>2.3537099999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.64761199999999997</c:v>
+                  <c:v>2.0906500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.65692399999999995</c:v>
+                  <c:v>2.1756899999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.65650699999999995</c:v>
+                  <c:v>2.1282700000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.64713200000000004</c:v>
+                  <c:v>2.9736499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.65193199999999996</c:v>
+                  <c:v>2.3435600000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.65083999999999997</c:v>
+                  <c:v>2.0975899999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.66213900000000003</c:v>
+                  <c:v>2.90522E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.66109300000000004</c:v>
+                  <c:v>2.5516299999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.67209099999999999</c:v>
+                  <c:v>2.1813599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.67355799999999999</c:v>
+                  <c:v>2.39136E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.66833200000000004</c:v>
+                  <c:v>2.1098200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.66489200000000004</c:v>
+                  <c:v>2.2990799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.65699600000000002</c:v>
+                  <c:v>3.6036800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.64983800000000003</c:v>
+                  <c:v>2.8157100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.64540699999999995</c:v>
+                  <c:v>3.9497900000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.63766199999999995</c:v>
+                  <c:v>3.5398199999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.63539199999999996</c:v>
+                  <c:v>1.8926999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.63654999999999995</c:v>
+                  <c:v>1.7969599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.62541400000000003</c:v>
+                  <c:v>1.9221100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.63292599999999999</c:v>
+                  <c:v>1.47511E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.63739400000000002</c:v>
+                  <c:v>1.6204E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.64443799999999996</c:v>
+                  <c:v>1.6497100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.64703299999999997</c:v>
+                  <c:v>1.24683E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.64628799999999997</c:v>
+                  <c:v>1.44747E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.65585499999999997</c:v>
+                  <c:v>1.7451299999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.66016799999999998</c:v>
+                  <c:v>1.8103399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.66209200000000001</c:v>
+                  <c:v>2.0161999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.66417300000000001</c:v>
+                  <c:v>2.2995700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.66717899999999997</c:v>
+                  <c:v>2.2903E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.65296399999999999</c:v>
+                  <c:v>2.10563E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.65718299999999996</c:v>
+                  <c:v>3.4215799999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.658524</c:v>
+                  <c:v>3.4034799999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.66341600000000001</c:v>
+                  <c:v>3.6423499999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.65007899999999996</c:v>
+                  <c:v>4.1534599999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.65510900000000005</c:v>
+                  <c:v>4.0699300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.65091399999999999</c:v>
+                  <c:v>5.0045100000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.65313900000000003</c:v>
+                  <c:v>3.9596899999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.65169299999999997</c:v>
+                  <c:v>3.9446500000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.65377300000000005</c:v>
+                  <c:v>5.8770700000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.64852200000000004</c:v>
+                  <c:v>5.6046499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.66034899999999996</c:v>
+                  <c:v>5.2247099999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.65548200000000001</c:v>
+                  <c:v>5.3029199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.66811799999999999</c:v>
+                  <c:v>5.6422899999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.66707700000000003</c:v>
+                  <c:v>5.40753E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.66520500000000005</c:v>
+                  <c:v>5.5021500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.66831300000000005</c:v>
+                  <c:v>4.95016E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.67575499999999999</c:v>
+                  <c:v>4.6156099999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.67378700000000002</c:v>
+                  <c:v>3.2707699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.676292</c:v>
+                  <c:v>3.8820800000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.67486100000000004</c:v>
+                  <c:v>3.6548900000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.67310099999999995</c:v>
+                  <c:v>3.2019899999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.67580799999999996</c:v>
+                  <c:v>3.0492499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.67370099999999999</c:v>
+                  <c:v>2.3323400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.67171099999999995</c:v>
+                  <c:v>2.32436E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.68141200000000002</c:v>
+                  <c:v>2.1366799999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.686442</c:v>
+                  <c:v>2.67529E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.68201299999999998</c:v>
+                  <c:v>3.64646E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.67488899999999996</c:v>
+                  <c:v>4.0723299999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.68193899999999996</c:v>
+                  <c:v>4.5396600000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.69400499999999998</c:v>
+                  <c:v>5.3885700000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.69145100000000004</c:v>
+                  <c:v>5.5700100000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.679539</c:v>
+                  <c:v>4.2762000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.68401599999999996</c:v>
+                  <c:v>3.4024499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.68796500000000005</c:v>
+                  <c:v>3.5703699999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.67852299999999999</c:v>
+                  <c:v>3.2674799999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.66653499999999999</c:v>
+                  <c:v>3.4705399999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.65969900000000004</c:v>
+                  <c:v>3.4721799999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.65843399999999996</c:v>
+                  <c:v>4.2197999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.65247599999999994</c:v>
+                  <c:v>4.4533799999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.65023600000000004</c:v>
+                  <c:v>4.8156499999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.64057900000000001</c:v>
+                  <c:v>5.3204799999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.63839100000000004</c:v>
+                  <c:v>5.2833400000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.62865000000000004</c:v>
+                  <c:v>4.5664299999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.64736899999999997</c:v>
+                  <c:v>5.0500299999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.64167700000000005</c:v>
+                  <c:v>4.8743700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.64318399999999998</c:v>
+                  <c:v>3.48375E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.659335</c:v>
+                  <c:v>3.8440700000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3271,7 +4208,663 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6483-4EC6-BD58-4CE09FADAE80}"/>
+              <c16:uniqueId val="{00000001-8420-452A-BF73-DA0307D39C48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model 0.1'!$A$1:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model 0.1'!$G$1:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>5.7731600000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4646099999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5874099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.41125E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.51798E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8264900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7574099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9202199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.19513E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5743599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5051400000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4986499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3952000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4473600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7340400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6215599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.60962E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7581099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7800900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7529099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0099800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.72462E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.95858E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.49272E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0925099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.93067E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8803899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.93422E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9656699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4384699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5363799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4873800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6528099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2537399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.4596400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.6198699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.5970000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7177000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.9765300000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.3465700000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.2180799999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.73803E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.3852400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.8587500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.1093099999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.4336699999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.6806700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.7029900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.1602700000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.87199E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.6432099999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.6209000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.0022800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.99908E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.9086700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.8325899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.1244800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.9899400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7425400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.42122E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.6650600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.6190300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.0209499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.678E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.98488E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6761600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.0522200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.9692600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.8795599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.96606E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.0551799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.57524E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8104700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7748699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.19075E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.25676E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.1946299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.9426100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.15225E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.8676900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.6902999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.8155599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.2435399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.38006E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.1464100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.6995799999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.5645600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.0882800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.1086899999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.2704599999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.5072200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.3474699999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.7043199999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.10292800000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.10376000000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.2080300000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.7719999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.5050299999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.2794899999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.18662E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.5207899999999994E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8420-452A-BF73-DA0307D39C48}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3283,14 +4876,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="922529471"/>
-        <c:axId val="922531967"/>
+        <c:axId val="1979491919"/>
+        <c:axId val="1979492335"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="922529471"/>
+        <c:axId val="1979491919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3308,62 +4901,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nl-NL"/>
-                  <a:t>Generation</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="nl-NL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3401,12 +4938,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="922531967"/>
+        <c:crossAx val="1979492335"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="922531967"/>
+        <c:axId val="1979492335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3426,63 +4963,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nl-NL"/>
-                  <a:t>Pc</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="nl-NL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3519,7 +5000,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="922529471"/>
+        <c:crossAx val="1979491919"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3601,6 +5082,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4156,20 +5677,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393247</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>21317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>90261</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2268</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4183,6 +6220,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3176</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>307976</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>176439</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4454,1729 +6521,2335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.82155599999999995</v>
-      </c>
-      <c r="C1">
-        <v>0.213203</v>
+        <v>0.95</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1.6764399999999999E-14</v>
       </c>
       <c r="D1">
-        <v>0.18612200000000001</v>
-      </c>
-      <c r="E1">
-        <v>0.22070799999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.05</v>
+      </c>
+      <c r="E1" s="1">
+        <v>7.0776700000000001E-16</v>
+      </c>
+      <c r="F1">
+        <v>0.67</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5.7731600000000001E-15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B2">
-        <v>0.80527400000000005</v>
+        <v>0.94874099999999995</v>
       </c>
       <c r="C2">
-        <v>0.21989500000000001</v>
+        <v>9.7319799999999995E-3</v>
       </c>
       <c r="D2">
-        <v>0.27454499999999998</v>
+        <v>0.111039</v>
       </c>
       <c r="E2">
-        <v>0.26490399999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.09871E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.66920400000000002</v>
+      </c>
+      <c r="G2">
+        <v>8.4646099999999991E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="B3">
-        <v>0.79513299999999998</v>
+        <v>0.94453399999999998</v>
       </c>
       <c r="C3">
-        <v>0.22578200000000001</v>
+        <v>1.3829899999999999E-2</v>
       </c>
       <c r="D3">
-        <v>0.34145700000000001</v>
+        <v>0.159328</v>
       </c>
       <c r="E3">
-        <v>0.28364600000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9.4629099999999997E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.67193599999999998</v>
+      </c>
+      <c r="G3">
+        <v>1.5874099999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="B4">
-        <v>0.79355399999999998</v>
+        <v>0.93840400000000002</v>
       </c>
       <c r="C4">
-        <v>0.22308700000000001</v>
+        <v>1.4370600000000001E-2</v>
       </c>
       <c r="D4">
-        <v>0.385521</v>
+        <v>0.19351399999999999</v>
       </c>
       <c r="E4">
-        <v>0.28650300000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.9025799999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.66486800000000001</v>
+      </c>
+      <c r="G4">
+        <v>1.41125E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="B5">
-        <v>0.77929899999999996</v>
+        <v>0.923956</v>
       </c>
       <c r="C5">
-        <v>0.23044000000000001</v>
+        <v>1.4255800000000001E-2</v>
       </c>
       <c r="D5">
-        <v>0.40450199999999997</v>
+        <v>0.23888899999999999</v>
       </c>
       <c r="E5">
-        <v>0.27868900000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.5386199999999999E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.66935299999999998</v>
+      </c>
+      <c r="G5">
+        <v>1.51798E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="B6">
-        <v>0.78438399999999997</v>
+        <v>0.91777799999999998</v>
       </c>
       <c r="C6">
-        <v>0.23039200000000001</v>
+        <v>1.2168699999999999E-2</v>
       </c>
       <c r="D6">
-        <v>0.46151799999999998</v>
+        <v>0.25938699999999998</v>
       </c>
       <c r="E6">
-        <v>0.28190700000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.5236899999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.65782600000000002</v>
+      </c>
+      <c r="G6">
+        <v>1.8264900000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>6</v>
+        <v>600</v>
       </c>
       <c r="B7">
-        <v>0.77867299999999995</v>
+        <v>0.90808699999999998</v>
       </c>
       <c r="C7">
-        <v>0.22847799999999999</v>
+        <v>1.36904E-2</v>
       </c>
       <c r="D7">
-        <v>0.489761</v>
+        <v>0.28411599999999998</v>
       </c>
       <c r="E7">
-        <v>0.27974399999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.0689599999999999E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.65578599999999998</v>
+      </c>
+      <c r="G7">
+        <v>1.7574099999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>7</v>
+        <v>700</v>
       </c>
       <c r="B8">
-        <v>0.77461999999999998</v>
+        <v>0.90356700000000001</v>
       </c>
       <c r="C8">
-        <v>0.226658</v>
+        <v>1.8422500000000001E-2</v>
       </c>
       <c r="D8">
-        <v>0.505915</v>
+        <v>0.31525500000000001</v>
       </c>
       <c r="E8">
-        <v>0.28470699999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.28328E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.65441700000000003</v>
+      </c>
+      <c r="G8">
+        <v>1.9202199999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>8</v>
+        <v>800</v>
       </c>
       <c r="B9">
-        <v>0.77144000000000001</v>
+        <v>0.89607499999999995</v>
       </c>
       <c r="C9">
-        <v>0.22838800000000001</v>
+        <v>1.78573E-2</v>
       </c>
       <c r="D9">
-        <v>0.52896500000000002</v>
+        <v>0.33067999999999997</v>
       </c>
       <c r="E9">
-        <v>0.284084</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.39562E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.65171299999999999</v>
+      </c>
+      <c r="G9">
+        <v>2.19513E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>9</v>
+        <v>900</v>
       </c>
       <c r="B10">
-        <v>0.765096</v>
+        <v>0.88901399999999997</v>
       </c>
       <c r="C10">
-        <v>0.22558700000000001</v>
+        <v>1.8934400000000001E-2</v>
       </c>
       <c r="D10">
-        <v>0.53520299999999998</v>
+        <v>0.35164800000000002</v>
       </c>
       <c r="E10">
-        <v>0.28943999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.8377500000000001E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.646845</v>
+      </c>
+      <c r="G10">
+        <v>2.5743599999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="B11">
-        <v>0.75754999999999995</v>
+        <v>0.89051100000000005</v>
       </c>
       <c r="C11">
-        <v>0.229545</v>
+        <v>1.53922E-2</v>
       </c>
       <c r="D11">
-        <v>0.54845200000000005</v>
+        <v>0.37684499999999999</v>
       </c>
       <c r="E11">
-        <v>0.29205399999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.8891999999999999E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.65492799999999995</v>
+      </c>
+      <c r="G11">
+        <v>3.5051400000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>11</v>
+        <v>1100</v>
       </c>
       <c r="B12">
-        <v>0.75740399999999997</v>
+        <v>0.88764200000000004</v>
       </c>
       <c r="C12">
-        <v>0.23091999999999999</v>
+        <v>2.6225100000000001E-2</v>
       </c>
       <c r="D12">
-        <v>0.55974999999999997</v>
+        <v>0.38721</v>
       </c>
       <c r="E12">
-        <v>0.28694199999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.8855199999999999E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.65347599999999995</v>
+      </c>
+      <c r="G12">
+        <v>2.4986499999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>12</v>
+        <v>1200</v>
       </c>
       <c r="B13">
-        <v>0.74152399999999996</v>
+        <v>0.87782199999999999</v>
       </c>
       <c r="C13">
-        <v>0.235543</v>
+        <v>2.6530000000000001E-2</v>
       </c>
       <c r="D13">
-        <v>0.56616999999999995</v>
+        <v>0.397951</v>
       </c>
       <c r="E13">
-        <v>0.283744</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.0382399999999998E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.64701399999999998</v>
+      </c>
+      <c r="G13">
+        <v>2.3952000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>13</v>
+        <v>1300</v>
       </c>
       <c r="B14">
-        <v>0.74934000000000001</v>
+        <v>0.87720799999999999</v>
       </c>
       <c r="C14">
-        <v>0.23712800000000001</v>
+        <v>2.5620899999999999E-2</v>
       </c>
       <c r="D14">
-        <v>0.56979400000000002</v>
+        <v>0.42649799999999999</v>
       </c>
       <c r="E14">
-        <v>0.281584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.8814099999999999E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.64818100000000001</v>
+      </c>
+      <c r="G14">
+        <v>2.4473600000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>14</v>
+        <v>1400</v>
       </c>
       <c r="B15">
-        <v>0.73347899999999999</v>
+        <v>0.86440399999999995</v>
       </c>
       <c r="C15">
-        <v>0.24757799999999999</v>
+        <v>2.8724300000000001E-2</v>
       </c>
       <c r="D15">
-        <v>0.55965699999999996</v>
+        <v>0.44608500000000001</v>
       </c>
       <c r="E15">
-        <v>0.28345599999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.75598E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.66736200000000001</v>
+      </c>
+      <c r="G15">
+        <v>2.7340400000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="B16">
-        <v>0.73399700000000001</v>
+        <v>0.84855899999999995</v>
       </c>
       <c r="C16">
-        <v>0.246976</v>
+        <v>3.3741E-2</v>
       </c>
       <c r="D16">
-        <v>0.56915800000000005</v>
+        <v>0.45074599999999998</v>
       </c>
       <c r="E16">
-        <v>0.27738699999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.3883299999999999E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.66985700000000004</v>
+      </c>
+      <c r="G16">
+        <v>2.6215599999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>16</v>
+        <v>1600</v>
       </c>
       <c r="B17">
-        <v>0.740595</v>
+        <v>0.82747999999999999</v>
       </c>
       <c r="C17">
-        <v>0.24479200000000001</v>
+        <v>1.67729E-2</v>
       </c>
       <c r="D17">
-        <v>0.58461200000000002</v>
+        <v>0.456563</v>
       </c>
       <c r="E17">
-        <v>0.27235100000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.4012200000000001E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.66626200000000002</v>
+      </c>
+      <c r="G17">
+        <v>2.60962E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>17</v>
+        <v>1700</v>
       </c>
       <c r="B18">
-        <v>0.74382400000000004</v>
+        <v>0.81955</v>
       </c>
       <c r="C18">
-        <v>0.246421</v>
+        <v>1.8393199999999998E-2</v>
       </c>
       <c r="D18">
-        <v>0.58863799999999999</v>
+        <v>0.46092100000000003</v>
       </c>
       <c r="E18">
-        <v>0.26932400000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.42262E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.65461899999999995</v>
+      </c>
+      <c r="G18">
+        <v>1.7581099999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>18</v>
+        <v>1800</v>
       </c>
       <c r="B19">
-        <v>0.74430399999999997</v>
+        <v>0.81252100000000005</v>
       </c>
       <c r="C19">
-        <v>0.243501</v>
+        <v>1.9888699999999999E-2</v>
       </c>
       <c r="D19">
-        <v>0.61495599999999995</v>
+        <v>0.46661599999999998</v>
       </c>
       <c r="E19">
-        <v>0.26028400000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.0494700000000001E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.65292300000000003</v>
+      </c>
+      <c r="G19">
+        <v>1.7800900000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>19</v>
+        <v>1900</v>
       </c>
       <c r="B20">
-        <v>0.74618099999999998</v>
+        <v>0.81530100000000005</v>
       </c>
       <c r="C20">
-        <v>0.24487800000000001</v>
+        <v>1.30863E-2</v>
       </c>
       <c r="D20">
-        <v>0.62867200000000001</v>
+        <v>0.47038400000000002</v>
       </c>
       <c r="E20">
-        <v>0.25519199999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.41614E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.65025299999999997</v>
+      </c>
+      <c r="G20">
+        <v>1.7529099999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="B21">
-        <v>0.74499400000000005</v>
+        <v>0.80261300000000002</v>
       </c>
       <c r="C21">
-        <v>0.24785499999999999</v>
+        <v>1.4070600000000001E-2</v>
       </c>
       <c r="D21">
-        <v>0.63925200000000004</v>
+        <v>0.48674000000000001</v>
       </c>
       <c r="E21">
-        <v>0.24654400000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.3285500000000001E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.63902899999999996</v>
+      </c>
+      <c r="G21">
+        <v>2.0099800000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>21</v>
+        <v>2100</v>
       </c>
       <c r="B22">
-        <v>0.73429800000000001</v>
+        <v>0.79834000000000005</v>
       </c>
       <c r="C22">
-        <v>0.25049700000000003</v>
+        <v>2.2827400000000001E-2</v>
       </c>
       <c r="D22">
-        <v>0.62922800000000001</v>
+        <v>0.49926100000000001</v>
       </c>
       <c r="E22">
-        <v>0.248197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.2875199999999998E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.63634199999999996</v>
+      </c>
+      <c r="G22">
+        <v>1.72462E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>22</v>
+        <v>2200</v>
       </c>
       <c r="B23">
-        <v>0.72053500000000004</v>
+        <v>0.78887799999999997</v>
       </c>
       <c r="C23">
-        <v>0.25536799999999998</v>
+        <v>1.92681E-2</v>
       </c>
       <c r="D23">
-        <v>0.64385800000000004</v>
+        <v>0.50935399999999997</v>
       </c>
       <c r="E23">
-        <v>0.24546100000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.5895599999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.63479200000000002</v>
+      </c>
+      <c r="G23">
+        <v>1.95858E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>23</v>
+        <v>2300</v>
       </c>
       <c r="B24">
-        <v>0.71834200000000004</v>
+        <v>0.79000599999999999</v>
       </c>
       <c r="C24">
-        <v>0.25607000000000002</v>
+        <v>1.45811E-2</v>
       </c>
       <c r="D24">
-        <v>0.64638300000000004</v>
+        <v>0.51549199999999995</v>
       </c>
       <c r="E24">
-        <v>0.24393799999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.3537099999999998E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.63574699999999995</v>
+      </c>
+      <c r="G24">
+        <v>2.49272E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>24</v>
+        <v>2400</v>
       </c>
       <c r="B25">
-        <v>0.71428599999999998</v>
+        <v>0.78092300000000003</v>
       </c>
       <c r="C25">
-        <v>0.25323699999999999</v>
+        <v>1.78192E-2</v>
       </c>
       <c r="D25">
-        <v>0.64761199999999997</v>
+        <v>0.52392300000000003</v>
       </c>
       <c r="E25">
-        <v>0.24518699999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.0906500000000001E-2</v>
+      </c>
+      <c r="F25">
+        <v>0.63080099999999995</v>
+      </c>
+      <c r="G25">
+        <v>2.0925099999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>25</v>
+        <v>2500</v>
       </c>
       <c r="B26">
-        <v>0.71864499999999998</v>
+        <v>0.78048300000000004</v>
       </c>
       <c r="C26">
-        <v>0.252218</v>
+        <v>1.77258E-2</v>
       </c>
       <c r="D26">
-        <v>0.65692399999999995</v>
+        <v>0.52774299999999996</v>
       </c>
       <c r="E26">
-        <v>0.239538</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.1756899999999999E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.64129599999999998</v>
+      </c>
+      <c r="G26">
+        <v>1.93067E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>26</v>
+        <v>2600</v>
       </c>
       <c r="B27">
-        <v>0.70941799999999999</v>
+        <v>0.78375799999999995</v>
       </c>
       <c r="C27">
-        <v>0.248999</v>
+        <v>2.09161E-2</v>
       </c>
       <c r="D27">
-        <v>0.65650699999999995</v>
+        <v>0.53507400000000005</v>
       </c>
       <c r="E27">
-        <v>0.234766</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.1282700000000002E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.64686999999999995</v>
+      </c>
+      <c r="G27">
+        <v>1.8803899999999998E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>27</v>
+        <v>2700</v>
       </c>
       <c r="B28">
-        <v>0.71334900000000001</v>
+        <v>0.78351700000000002</v>
       </c>
       <c r="C28">
-        <v>0.25026599999999999</v>
+        <v>2.33739E-2</v>
       </c>
       <c r="D28">
-        <v>0.64713200000000004</v>
+        <v>0.56139399999999995</v>
       </c>
       <c r="E28">
-        <v>0.235648</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.9736499999999999E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.65276500000000004</v>
+      </c>
+      <c r="G28">
+        <v>1.93422E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>28</v>
+        <v>2800</v>
       </c>
       <c r="B29">
-        <v>0.71317699999999995</v>
+        <v>0.76890099999999995</v>
       </c>
       <c r="C29">
-        <v>0.24776200000000001</v>
+        <v>1.6126100000000001E-2</v>
       </c>
       <c r="D29">
-        <v>0.65193199999999996</v>
+        <v>0.57326900000000003</v>
       </c>
       <c r="E29">
-        <v>0.23681099999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.3435600000000001E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.66064100000000003</v>
+      </c>
+      <c r="G29">
+        <v>1.9656699999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>29</v>
+        <v>2900</v>
       </c>
       <c r="B30">
-        <v>0.72114199999999995</v>
+        <v>0.77057500000000001</v>
       </c>
       <c r="C30">
-        <v>0.24609800000000001</v>
+        <v>1.6809600000000001E-2</v>
       </c>
       <c r="D30">
-        <v>0.65083999999999997</v>
+        <v>0.57777699999999999</v>
       </c>
       <c r="E30">
-        <v>0.23217099999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.0975899999999999E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.663219</v>
+      </c>
+      <c r="G30">
+        <v>2.4384699999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="B31">
-        <v>0.70902100000000001</v>
+        <v>0.77045600000000003</v>
       </c>
       <c r="C31">
-        <v>0.24863399999999999</v>
+        <v>1.87125E-2</v>
       </c>
       <c r="D31">
-        <v>0.66213900000000003</v>
+        <v>0.59037799999999996</v>
       </c>
       <c r="E31">
-        <v>0.22200400000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.90522E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.66142699999999999</v>
+      </c>
+      <c r="G31">
+        <v>2.5363799999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>31</v>
+        <v>3100</v>
       </c>
       <c r="B32">
-        <v>0.70536200000000004</v>
+        <v>0.75922299999999998</v>
       </c>
       <c r="C32">
-        <v>0.24997800000000001</v>
+        <v>1.84064E-2</v>
       </c>
       <c r="D32">
-        <v>0.66109300000000004</v>
+        <v>0.60245400000000005</v>
       </c>
       <c r="E32">
-        <v>0.23217399999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.5516299999999999E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.665709</v>
+      </c>
+      <c r="G32">
+        <v>2.4873800000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>32</v>
+        <v>3200</v>
       </c>
       <c r="B33">
-        <v>0.71141500000000002</v>
+        <v>0.76812599999999998</v>
       </c>
       <c r="C33">
-        <v>0.246082</v>
+        <v>2.56277E-2</v>
       </c>
       <c r="D33">
-        <v>0.67209099999999999</v>
+        <v>0.60329200000000005</v>
       </c>
       <c r="E33">
-        <v>0.23407500000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.1813599999999999E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.653868</v>
+      </c>
+      <c r="G33">
+        <v>2.6528099999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>33</v>
+        <v>3300</v>
       </c>
       <c r="B34">
-        <v>0.700345</v>
+        <v>0.75785400000000003</v>
       </c>
       <c r="C34">
-        <v>0.24293500000000001</v>
+        <v>2.1716200000000001E-2</v>
       </c>
       <c r="D34">
-        <v>0.67355799999999999</v>
+        <v>0.59748900000000005</v>
       </c>
       <c r="E34">
-        <v>0.23777100000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.39136E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.65097700000000003</v>
+      </c>
+      <c r="G34">
+        <v>2.2537399999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>34</v>
+        <v>3400</v>
       </c>
       <c r="B35">
-        <v>0.70419200000000004</v>
+        <v>0.75300800000000001</v>
       </c>
       <c r="C35">
-        <v>0.240901</v>
+        <v>1.74938E-2</v>
       </c>
       <c r="D35">
-        <v>0.66833200000000004</v>
+        <v>0.60527500000000001</v>
       </c>
       <c r="E35">
-        <v>0.22856699999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.1098200000000001E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.659084</v>
+      </c>
+      <c r="G35">
+        <v>2.4596400000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="B36">
-        <v>0.71793499999999999</v>
+        <v>0.76327699999999998</v>
       </c>
       <c r="C36">
-        <v>0.24235100000000001</v>
+        <v>2.57346E-2</v>
       </c>
       <c r="D36">
-        <v>0.66489200000000004</v>
+        <v>0.60330099999999998</v>
       </c>
       <c r="E36">
-        <v>0.229905</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.2990799999999999E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.66409399999999996</v>
+      </c>
+      <c r="G36">
+        <v>2.6198699999999998E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>36</v>
+        <v>3600</v>
       </c>
       <c r="B37">
-        <v>0.70955699999999999</v>
+        <v>0.76265799999999995</v>
       </c>
       <c r="C37">
-        <v>0.24265700000000001</v>
+        <v>2.6383899999999998E-2</v>
       </c>
       <c r="D37">
-        <v>0.65699600000000002</v>
+        <v>0.602244</v>
       </c>
       <c r="E37">
-        <v>0.229849</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.6036800000000001E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.65768800000000005</v>
+      </c>
+      <c r="G37">
+        <v>3.5970000000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>37</v>
+        <v>3700</v>
       </c>
       <c r="B38">
-        <v>0.70774300000000001</v>
+        <v>0.75865400000000005</v>
       </c>
       <c r="C38">
-        <v>0.24748899999999999</v>
+        <v>3.2127999999999997E-2</v>
       </c>
       <c r="D38">
-        <v>0.64983800000000003</v>
+        <v>0.61531800000000003</v>
       </c>
       <c r="E38">
-        <v>0.235594</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.8157100000000001E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.673211</v>
+      </c>
+      <c r="G38">
+        <v>3.7177000000000002E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>38</v>
+        <v>3800</v>
       </c>
       <c r="B39">
-        <v>0.71067000000000002</v>
+        <v>0.74321300000000001</v>
       </c>
       <c r="C39">
-        <v>0.250116</v>
+        <v>2.0923299999999999E-2</v>
       </c>
       <c r="D39">
-        <v>0.64540699999999995</v>
+        <v>0.61000100000000002</v>
       </c>
       <c r="E39">
-        <v>0.22933000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.9497900000000002E-2</v>
+      </c>
+      <c r="F39">
+        <v>0.67036300000000004</v>
+      </c>
+      <c r="G39">
+        <v>3.9765300000000003E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>39</v>
+        <v>3900</v>
       </c>
       <c r="B40">
-        <v>0.69050800000000001</v>
+        <v>0.735815</v>
       </c>
       <c r="C40">
-        <v>0.24948100000000001</v>
+        <v>1.8268400000000001E-2</v>
       </c>
       <c r="D40">
-        <v>0.63766199999999995</v>
+        <v>0.604491</v>
       </c>
       <c r="E40">
-        <v>0.22540299999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.5398199999999998E-2</v>
+      </c>
+      <c r="F40">
+        <v>0.66115199999999996</v>
+      </c>
+      <c r="G40">
+        <v>4.3465700000000003E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>40</v>
+        <v>4000</v>
       </c>
       <c r="B41">
-        <v>0.68818100000000004</v>
+        <v>0.74043599999999998</v>
       </c>
       <c r="C41">
-        <v>0.247113</v>
+        <v>2.3059199999999998E-2</v>
       </c>
       <c r="D41">
-        <v>0.63539199999999996</v>
+        <v>0.61791799999999997</v>
       </c>
       <c r="E41">
-        <v>0.23305600000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.8926999999999999E-2</v>
+      </c>
+      <c r="F41">
+        <v>0.66270099999999998</v>
+      </c>
+      <c r="G41">
+        <v>4.2180799999999997E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>41</v>
+        <v>4100</v>
       </c>
       <c r="B42">
-        <v>0.66783000000000003</v>
+        <v>0.74085599999999996</v>
       </c>
       <c r="C42">
-        <v>0.24594199999999999</v>
+        <v>3.0616299999999999E-2</v>
       </c>
       <c r="D42">
-        <v>0.63654999999999995</v>
+        <v>0.61561900000000003</v>
       </c>
       <c r="E42">
-        <v>0.23049</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.7969599999999999E-2</v>
+      </c>
+      <c r="F42">
+        <v>0.68471800000000005</v>
+      </c>
+      <c r="G42">
+        <v>4.73803E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>42</v>
+        <v>4200</v>
       </c>
       <c r="B43">
-        <v>0.67682200000000003</v>
+        <v>0.74498500000000001</v>
       </c>
       <c r="C43">
-        <v>0.24497099999999999</v>
+        <v>1.9742900000000001E-2</v>
       </c>
       <c r="D43">
-        <v>0.62541400000000003</v>
+        <v>0.61395500000000003</v>
       </c>
       <c r="E43">
-        <v>0.23929700000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.9221100000000001E-2</v>
+      </c>
+      <c r="F43">
+        <v>0.67345299999999997</v>
+      </c>
+      <c r="G43">
+        <v>5.3852400000000002E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>43</v>
+        <v>4300</v>
       </c>
       <c r="B44">
-        <v>0.68358099999999999</v>
+        <v>0.73846800000000001</v>
       </c>
       <c r="C44">
-        <v>0.246478</v>
+        <v>2.155E-2</v>
       </c>
       <c r="D44">
-        <v>0.63292599999999999</v>
+        <v>0.61101300000000003</v>
       </c>
       <c r="E44">
-        <v>0.24094099999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.47511E-2</v>
+      </c>
+      <c r="F44">
+        <v>0.65951800000000005</v>
+      </c>
+      <c r="G44">
+        <v>5.8587500000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>44</v>
+        <v>4400</v>
       </c>
       <c r="B45">
-        <v>0.68073399999999995</v>
+        <v>0.737236</v>
       </c>
       <c r="C45">
-        <v>0.245532</v>
+        <v>1.9721099999999998E-2</v>
       </c>
       <c r="D45">
-        <v>0.63739400000000002</v>
+        <v>0.61535200000000001</v>
       </c>
       <c r="E45">
-        <v>0.23503399999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.6204E-2</v>
+      </c>
+      <c r="F45">
+        <v>0.67122000000000004</v>
+      </c>
+      <c r="G45">
+        <v>6.1093099999999997E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>45</v>
+        <v>4500</v>
       </c>
       <c r="B46">
-        <v>0.679122</v>
+        <v>0.74704999999999999</v>
       </c>
       <c r="C46">
-        <v>0.24978500000000001</v>
+        <v>1.54643E-2</v>
       </c>
       <c r="D46">
-        <v>0.64443799999999996</v>
+        <v>0.61261900000000002</v>
       </c>
       <c r="E46">
-        <v>0.22672500000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.6497100000000001E-2</v>
+      </c>
+      <c r="F46">
+        <v>0.66949400000000003</v>
+      </c>
+      <c r="G46">
+        <v>6.4336699999999997E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>46</v>
+        <v>4600</v>
       </c>
       <c r="B47">
-        <v>0.67921500000000001</v>
+        <v>0.75213200000000002</v>
       </c>
       <c r="C47">
-        <v>0.246228</v>
+        <v>1.9180699999999998E-2</v>
       </c>
       <c r="D47">
-        <v>0.64703299999999997</v>
+        <v>0.61599000000000004</v>
       </c>
       <c r="E47">
-        <v>0.222693</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.24683E-2</v>
+      </c>
+      <c r="F47">
+        <v>0.65485099999999996</v>
+      </c>
+      <c r="G47">
+        <v>5.6806700000000002E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>47</v>
+        <v>4700</v>
       </c>
       <c r="B48">
-        <v>0.66991299999999998</v>
+        <v>0.75453599999999998</v>
       </c>
       <c r="C48">
-        <v>0.24695700000000001</v>
+        <v>1.97571E-2</v>
       </c>
       <c r="D48">
-        <v>0.64628799999999997</v>
+        <v>0.61693299999999995</v>
       </c>
       <c r="E48">
-        <v>0.23310800000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.44747E-2</v>
+      </c>
+      <c r="F48">
+        <v>0.66761700000000002</v>
+      </c>
+      <c r="G48">
+        <v>5.7029900000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>48</v>
+        <v>4800</v>
       </c>
       <c r="B49">
-        <v>0.66746000000000005</v>
+        <v>0.75555899999999998</v>
       </c>
       <c r="C49">
-        <v>0.24379200000000001</v>
+        <v>2.31729E-2</v>
       </c>
       <c r="D49">
-        <v>0.65585499999999997</v>
+        <v>0.62407400000000002</v>
       </c>
       <c r="E49">
-        <v>0.22601199999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.7451299999999999E-2</v>
+      </c>
+      <c r="F49">
+        <v>0.65645600000000004</v>
+      </c>
+      <c r="G49">
+        <v>6.1602700000000003E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>49</v>
+        <v>4900</v>
       </c>
       <c r="B50">
-        <v>0.662188</v>
+        <v>0.74756199999999995</v>
       </c>
       <c r="C50">
-        <v>0.24367</v>
+        <v>2.6862400000000002E-2</v>
       </c>
       <c r="D50">
-        <v>0.66016799999999998</v>
+        <v>0.63245600000000002</v>
       </c>
       <c r="E50">
-        <v>0.215724</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.8103399999999999E-2</v>
+      </c>
+      <c r="F50">
+        <v>0.66417800000000005</v>
+      </c>
+      <c r="G50">
+        <v>6.87199E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="B51">
-        <v>0.65689399999999998</v>
+        <v>0.74191200000000002</v>
       </c>
       <c r="C51">
-        <v>0.24393799999999999</v>
+        <v>2.0009900000000001E-2</v>
       </c>
       <c r="D51">
-        <v>0.66209200000000001</v>
+        <v>0.64014400000000005</v>
       </c>
       <c r="E51">
-        <v>0.21648000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.0161999999999999E-2</v>
+      </c>
+      <c r="F51">
+        <v>0.65465799999999996</v>
+      </c>
+      <c r="G51">
+        <v>6.6432099999999994E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>51</v>
+        <v>5100</v>
       </c>
       <c r="B52">
-        <v>0.66370399999999996</v>
+        <v>0.73500699999999997</v>
       </c>
       <c r="C52">
-        <v>0.24574499999999999</v>
+        <v>2.5667800000000001E-2</v>
       </c>
       <c r="D52">
-        <v>0.66417300000000001</v>
+        <v>0.63990400000000003</v>
       </c>
       <c r="E52">
-        <v>0.22297900000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.2995700000000001E-2</v>
+      </c>
+      <c r="F52">
+        <v>0.65484100000000001</v>
+      </c>
+      <c r="G52">
+        <v>6.6209000000000004E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>52</v>
+        <v>5200</v>
       </c>
       <c r="B53">
-        <v>0.66457999999999995</v>
+        <v>0.73305100000000001</v>
       </c>
       <c r="C53">
-        <v>0.24801699999999999</v>
+        <v>1.6515999999999999E-2</v>
       </c>
       <c r="D53">
-        <v>0.66717899999999997</v>
+        <v>0.64982899999999999</v>
       </c>
       <c r="E53">
-        <v>0.224276</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.2903E-2</v>
+      </c>
+      <c r="F53">
+        <v>0.66336700000000004</v>
+      </c>
+      <c r="G53">
+        <v>6.0022800000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>53</v>
+        <v>5300</v>
       </c>
       <c r="B54">
-        <v>0.66631600000000002</v>
+        <v>0.73951299999999998</v>
       </c>
       <c r="C54">
-        <v>0.24965999999999999</v>
+        <v>1.5629899999999999E-2</v>
       </c>
       <c r="D54">
-        <v>0.65296399999999999</v>
+        <v>0.64900100000000005</v>
       </c>
       <c r="E54">
-        <v>0.22169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.10563E-2</v>
+      </c>
+      <c r="F54">
+        <v>0.68632199999999999</v>
+      </c>
+      <c r="G54">
+        <v>3.99908E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>54</v>
+        <v>5400</v>
       </c>
       <c r="B55">
-        <v>0.66229300000000002</v>
+        <v>0.73322799999999999</v>
       </c>
       <c r="C55">
-        <v>0.24615300000000001</v>
+        <v>1.79764E-2</v>
       </c>
       <c r="D55">
-        <v>0.65718299999999996</v>
+        <v>0.65728900000000001</v>
       </c>
       <c r="E55">
-        <v>0.22661200000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.4215799999999998E-2</v>
+      </c>
+      <c r="F55">
+        <v>0.69133</v>
+      </c>
+      <c r="G55">
+        <v>1.9086700000000002E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>55</v>
+        <v>5500</v>
       </c>
       <c r="B56">
-        <v>0.66364599999999996</v>
+        <v>0.73237799999999997</v>
       </c>
       <c r="C56">
-        <v>0.242975</v>
+        <v>1.7399700000000001E-2</v>
       </c>
       <c r="D56">
-        <v>0.658524</v>
+        <v>0.66319099999999997</v>
       </c>
       <c r="E56">
-        <v>0.22476399999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.4034799999999997E-2</v>
+      </c>
+      <c r="F56">
+        <v>0.69559800000000005</v>
+      </c>
+      <c r="G56">
+        <v>1.8325899999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>56</v>
+        <v>5600</v>
       </c>
       <c r="B57">
-        <v>0.66508900000000004</v>
+        <v>0.73436100000000004</v>
       </c>
       <c r="C57">
-        <v>0.24299499999999999</v>
+        <v>1.8926100000000001E-2</v>
       </c>
       <c r="D57">
-        <v>0.66341600000000001</v>
+        <v>0.66687799999999997</v>
       </c>
       <c r="E57">
-        <v>0.232908</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.6423499999999998E-2</v>
+      </c>
+      <c r="F57">
+        <v>0.68950599999999995</v>
+      </c>
+      <c r="G57">
+        <v>2.1244800000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>57</v>
+        <v>5700</v>
       </c>
       <c r="B58">
-        <v>0.66712000000000005</v>
+        <v>0.73509999999999998</v>
       </c>
       <c r="C58">
-        <v>0.24521499999999999</v>
+        <v>2.1980599999999999E-2</v>
       </c>
       <c r="D58">
-        <v>0.65007899999999996</v>
+        <v>0.68090099999999998</v>
       </c>
       <c r="E58">
-        <v>0.228127</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4.1534599999999998E-2</v>
+      </c>
+      <c r="F58">
+        <v>0.69034700000000004</v>
+      </c>
+      <c r="G58">
+        <v>1.9899400000000001E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>58</v>
+        <v>5800</v>
       </c>
       <c r="B59">
-        <v>0.66726799999999997</v>
+        <v>0.72958100000000004</v>
       </c>
       <c r="C59">
-        <v>0.243316</v>
+        <v>1.93388E-2</v>
       </c>
       <c r="D59">
-        <v>0.65510900000000005</v>
+        <v>0.69328699999999999</v>
       </c>
       <c r="E59">
-        <v>0.232103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4.0699300000000001E-2</v>
+      </c>
+      <c r="F59">
+        <v>0.69201800000000002</v>
+      </c>
+      <c r="G59">
+        <v>1.7425400000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>59</v>
+        <v>5900</v>
       </c>
       <c r="B60">
-        <v>0.65030500000000002</v>
+        <v>0.72660999999999998</v>
       </c>
       <c r="C60">
-        <v>0.24367800000000001</v>
+        <v>2.1758699999999999E-2</v>
       </c>
       <c r="D60">
-        <v>0.65091399999999999</v>
+        <v>0.66352199999999995</v>
       </c>
       <c r="E60">
-        <v>0.226966</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.0045100000000002E-2</v>
+      </c>
+      <c r="F60">
+        <v>0.69847800000000004</v>
+      </c>
+      <c r="G60">
+        <v>2.42122E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>60</v>
+        <v>6000</v>
       </c>
       <c r="B61">
-        <v>0.65973300000000001</v>
+        <v>0.72177199999999997</v>
       </c>
       <c r="C61">
-        <v>0.239701</v>
+        <v>2.09792E-2</v>
       </c>
       <c r="D61">
-        <v>0.65313900000000003</v>
+        <v>0.64331799999999995</v>
       </c>
       <c r="E61">
-        <v>0.229764</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.9596899999999997E-2</v>
+      </c>
+      <c r="F61">
+        <v>0.70055999999999996</v>
+      </c>
+      <c r="G61">
+        <v>1.6650600000000002E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>61</v>
+        <v>6100</v>
       </c>
       <c r="B62">
-        <v>0.650065</v>
+        <v>0.72172599999999998</v>
       </c>
       <c r="C62">
-        <v>0.23493900000000001</v>
+        <v>2.11007E-2</v>
       </c>
       <c r="D62">
-        <v>0.65169299999999997</v>
+        <v>0.65317999999999998</v>
       </c>
       <c r="E62">
-        <v>0.23248099999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.9446500000000002E-2</v>
+      </c>
+      <c r="F62">
+        <v>0.69583499999999998</v>
+      </c>
+      <c r="G62">
+        <v>1.6190300000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>62</v>
+        <v>6200</v>
       </c>
       <c r="B63">
-        <v>0.66267900000000002</v>
+        <v>0.72114500000000004</v>
       </c>
       <c r="C63">
-        <v>0.23544300000000001</v>
+        <v>1.6807099999999998E-2</v>
       </c>
       <c r="D63">
-        <v>0.65377300000000005</v>
+        <v>0.68293000000000004</v>
       </c>
       <c r="E63">
-        <v>0.23360900000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.8770700000000002E-2</v>
+      </c>
+      <c r="F63">
+        <v>0.69627399999999995</v>
+      </c>
+      <c r="G63">
+        <v>2.0209499999999998E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>63</v>
+        <v>6300</v>
       </c>
       <c r="B64">
-        <v>0.66327800000000003</v>
+        <v>0.71397900000000003</v>
       </c>
       <c r="C64">
-        <v>0.232875</v>
+        <v>1.31596E-2</v>
       </c>
       <c r="D64">
-        <v>0.64852200000000004</v>
+        <v>0.71485200000000004</v>
       </c>
       <c r="E64">
-        <v>0.23779900000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.6046499999999999E-2</v>
+      </c>
+      <c r="F64">
+        <v>0.69386000000000003</v>
+      </c>
+      <c r="G64">
+        <v>1.678E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>64</v>
+        <v>6400</v>
       </c>
       <c r="B65">
-        <v>0.65978400000000004</v>
+        <v>0.72046399999999999</v>
       </c>
       <c r="C65">
-        <v>0.22922600000000001</v>
+        <v>1.5933200000000002E-2</v>
       </c>
       <c r="D65">
-        <v>0.66034899999999996</v>
+        <v>0.70872800000000002</v>
       </c>
       <c r="E65">
-        <v>0.227465</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.2247099999999998E-2</v>
+      </c>
+      <c r="F65">
+        <v>0.69418899999999994</v>
+      </c>
+      <c r="G65">
+        <v>1.98488E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>65</v>
+        <v>6500</v>
       </c>
       <c r="B66">
-        <v>0.65363700000000002</v>
+        <v>0.72865999999999997</v>
       </c>
       <c r="C66">
-        <v>0.22888500000000001</v>
+        <v>1.7776400000000001E-2</v>
       </c>
       <c r="D66">
-        <v>0.65548200000000001</v>
+        <v>0.70733800000000002</v>
       </c>
       <c r="E66">
-        <v>0.23120299999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.3029199999999999E-2</v>
+      </c>
+      <c r="F66">
+        <v>0.68682900000000002</v>
+      </c>
+      <c r="G66">
+        <v>1.6761600000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>66</v>
+        <v>6600</v>
       </c>
       <c r="B67">
-        <v>0.65327299999999999</v>
+        <v>0.72082999999999997</v>
       </c>
       <c r="C67">
-        <v>0.22095999999999999</v>
+        <v>2.3975099999999999E-2</v>
       </c>
       <c r="D67">
-        <v>0.66811799999999999</v>
+        <v>0.68390099999999998</v>
       </c>
       <c r="E67">
-        <v>0.22498000000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.6422899999999998E-2</v>
+      </c>
+      <c r="F67">
+        <v>0.69083300000000003</v>
+      </c>
+      <c r="G67">
+        <v>2.0522200000000001E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>67</v>
+        <v>6700</v>
       </c>
       <c r="B68">
-        <v>0.65520699999999998</v>
+        <v>0.72170000000000001</v>
       </c>
       <c r="C68">
-        <v>0.22176199999999999</v>
+        <v>2.4274899999999999E-2</v>
       </c>
       <c r="D68">
-        <v>0.66707700000000003</v>
+        <v>0.66897200000000001</v>
       </c>
       <c r="E68">
-        <v>0.21884600000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.40753E-2</v>
+      </c>
+      <c r="F68">
+        <v>0.68582100000000001</v>
+      </c>
+      <c r="G68">
+        <v>1.9692600000000001E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>68</v>
+        <v>6800</v>
       </c>
       <c r="B69">
-        <v>0.64097700000000002</v>
+        <v>0.70780399999999999</v>
       </c>
       <c r="C69">
-        <v>0.21978200000000001</v>
+        <v>3.2436300000000001E-2</v>
       </c>
       <c r="D69">
-        <v>0.66520500000000005</v>
+        <v>0.67501900000000004</v>
       </c>
       <c r="E69">
-        <v>0.21482499999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.5021500000000001E-2</v>
+      </c>
+      <c r="F69">
+        <v>0.67398400000000003</v>
+      </c>
+      <c r="G69">
+        <v>1.8795599999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>69</v>
+        <v>6900</v>
       </c>
       <c r="B70">
-        <v>0.64338700000000004</v>
+        <v>0.69950400000000001</v>
       </c>
       <c r="C70">
-        <v>0.220189</v>
+        <v>2.0628400000000002E-2</v>
       </c>
       <c r="D70">
-        <v>0.66831300000000005</v>
+        <v>0.666632</v>
       </c>
       <c r="E70">
-        <v>0.210842</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4.95016E-2</v>
+      </c>
+      <c r="F70">
+        <v>0.67334499999999997</v>
+      </c>
+      <c r="G70">
+        <v>1.96606E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>70</v>
+        <v>7000</v>
       </c>
       <c r="B71">
-        <v>0.63943499999999998</v>
+        <v>0.71508099999999997</v>
       </c>
       <c r="C71">
-        <v>0.219856</v>
+        <v>3.1761900000000003E-2</v>
       </c>
       <c r="D71">
-        <v>0.67575499999999999</v>
+        <v>0.66754000000000002</v>
       </c>
       <c r="E71">
-        <v>0.20640800000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4.6156099999999999E-2</v>
+      </c>
+      <c r="F71">
+        <v>0.66614700000000004</v>
+      </c>
+      <c r="G71">
+        <v>2.0551799999999999E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>71</v>
+        <v>7100</v>
       </c>
       <c r="B72">
-        <v>0.64648300000000003</v>
+        <v>0.71847899999999998</v>
       </c>
       <c r="C72">
-        <v>0.219499</v>
+        <v>3.6566899999999999E-2</v>
       </c>
       <c r="D72">
-        <v>0.67378700000000002</v>
+        <v>0.65812099999999996</v>
       </c>
       <c r="E72">
-        <v>0.20308799999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.2707699999999999E-2</v>
+      </c>
+      <c r="F72">
+        <v>0.66094200000000003</v>
+      </c>
+      <c r="G72">
+        <v>1.57524E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>72</v>
+        <v>7200</v>
       </c>
       <c r="B73">
-        <v>0.64757500000000001</v>
+        <v>0.69214799999999999</v>
       </c>
       <c r="C73">
-        <v>0.22115499999999999</v>
+        <v>2.6040899999999999E-2</v>
       </c>
       <c r="D73">
-        <v>0.676292</v>
+        <v>0.66676299999999999</v>
       </c>
       <c r="E73">
-        <v>0.19514400000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.8820800000000003E-2</v>
+      </c>
+      <c r="F73">
+        <v>0.66350500000000001</v>
+      </c>
+      <c r="G73">
+        <v>1.8104700000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>73</v>
+        <v>7300</v>
       </c>
       <c r="B74">
-        <v>0.65914600000000001</v>
+        <v>0.69393400000000005</v>
       </c>
       <c r="C74">
-        <v>0.22065000000000001</v>
+        <v>2.59566E-2</v>
       </c>
       <c r="D74">
-        <v>0.67486100000000004</v>
+        <v>0.68013400000000002</v>
       </c>
       <c r="E74">
-        <v>0.203851</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.6548900000000002E-2</v>
+      </c>
+      <c r="F74">
+        <v>0.66596100000000003</v>
+      </c>
+      <c r="G74">
+        <v>1.7748699999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>74</v>
+        <v>7400</v>
       </c>
       <c r="B75">
-        <v>0.65260200000000002</v>
+        <v>0.69449799999999995</v>
       </c>
       <c r="C75">
-        <v>0.221411</v>
+        <v>3.0014099999999998E-2</v>
       </c>
       <c r="D75">
-        <v>0.67310099999999995</v>
+        <v>0.68122499999999997</v>
       </c>
       <c r="E75">
-        <v>0.20191500000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.2019899999999997E-2</v>
+      </c>
+      <c r="F75">
+        <v>0.658443</v>
+      </c>
+      <c r="G75">
+        <v>2.19075E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>75</v>
+        <v>7500</v>
       </c>
       <c r="B76">
-        <v>0.65528500000000001</v>
+        <v>0.68421900000000002</v>
       </c>
       <c r="C76">
-        <v>0.22416900000000001</v>
+        <v>2.84482E-2</v>
       </c>
       <c r="D76">
-        <v>0.67580799999999996</v>
+        <v>0.68150500000000003</v>
       </c>
       <c r="E76">
-        <v>0.20513200000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.0492499999999999E-2</v>
+      </c>
+      <c r="F76">
+        <v>0.66211600000000004</v>
+      </c>
+      <c r="G76">
+        <v>2.25676E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>76</v>
+        <v>7600</v>
       </c>
       <c r="B77">
-        <v>0.66765200000000002</v>
+        <v>0.67128900000000002</v>
       </c>
       <c r="C77">
-        <v>0.21443100000000001</v>
+        <v>2.2110999999999999E-2</v>
       </c>
       <c r="D77">
-        <v>0.67370099999999999</v>
+        <v>0.68435199999999996</v>
       </c>
       <c r="E77">
-        <v>0.19278200000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.3323400000000001E-2</v>
+      </c>
+      <c r="F77">
+        <v>0.67243299999999995</v>
+      </c>
+      <c r="G77">
+        <v>2.1946299999999998E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>77</v>
+        <v>7700</v>
       </c>
       <c r="B78">
-        <v>0.659667</v>
+        <v>0.66786400000000001</v>
       </c>
       <c r="C78">
-        <v>0.21605099999999999</v>
+        <v>1.4726400000000001E-2</v>
       </c>
       <c r="D78">
-        <v>0.67171099999999995</v>
+        <v>0.68160399999999999</v>
       </c>
       <c r="E78">
-        <v>0.18846499999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.32436E-2</v>
+      </c>
+      <c r="F78">
+        <v>0.66939700000000002</v>
+      </c>
+      <c r="G78">
+        <v>1.9426100000000002E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>78</v>
+        <v>7800</v>
       </c>
       <c r="B79">
-        <v>0.67567299999999997</v>
+        <v>0.66508800000000001</v>
       </c>
       <c r="C79">
-        <v>0.215502</v>
+        <v>1.7947600000000001E-2</v>
       </c>
       <c r="D79">
-        <v>0.68141200000000002</v>
+        <v>0.67260900000000001</v>
       </c>
       <c r="E79">
-        <v>0.18521899999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.1366799999999998E-2</v>
+      </c>
+      <c r="F79">
+        <v>0.66788700000000001</v>
+      </c>
+      <c r="G79">
+        <v>2.15225E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>79</v>
+        <v>7900</v>
       </c>
       <c r="B80">
-        <v>0.67847400000000002</v>
+        <v>0.65867600000000004</v>
       </c>
       <c r="C80">
-        <v>0.21889900000000001</v>
+        <v>1.2462000000000001E-2</v>
       </c>
       <c r="D80">
-        <v>0.686442</v>
+        <v>0.66353600000000001</v>
       </c>
       <c r="E80">
-        <v>0.182254</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.67529E-2</v>
+      </c>
+      <c r="F80">
+        <v>0.66299699999999995</v>
+      </c>
+      <c r="G80">
+        <v>2.8676900000000002E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>80</v>
+        <v>8000</v>
       </c>
       <c r="B81">
-        <v>0.66857100000000003</v>
+        <v>0.65093000000000001</v>
       </c>
       <c r="C81">
-        <v>0.216442</v>
+        <v>1.5946200000000001E-2</v>
       </c>
       <c r="D81">
-        <v>0.68201299999999998</v>
+        <v>0.67291599999999996</v>
       </c>
       <c r="E81">
-        <v>0.187447</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.64646E-2</v>
+      </c>
+      <c r="F81">
+        <v>0.64854699999999998</v>
+      </c>
+      <c r="G81">
+        <v>3.6902999999999998E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>81</v>
+        <v>8100</v>
       </c>
       <c r="B82">
-        <v>0.67339700000000002</v>
+        <v>0.65327400000000002</v>
       </c>
       <c r="C82">
-        <v>0.21770300000000001</v>
+        <v>2.0186099999999998E-2</v>
       </c>
       <c r="D82">
-        <v>0.67488899999999996</v>
+        <v>0.65998599999999996</v>
       </c>
       <c r="E82">
-        <v>0.193412</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4.0723299999999997E-2</v>
+      </c>
+      <c r="F82">
+        <v>0.63801399999999997</v>
+      </c>
+      <c r="G82">
+        <v>3.8155599999999998E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>82</v>
+        <v>8200</v>
       </c>
       <c r="B83">
-        <v>0.67617099999999997</v>
+        <v>0.64940799999999999</v>
       </c>
       <c r="C83">
-        <v>0.213119</v>
+        <v>1.84467E-2</v>
       </c>
       <c r="D83">
-        <v>0.68193899999999996</v>
+        <v>0.65678800000000004</v>
       </c>
       <c r="E83">
-        <v>0.19090299999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4.5396600000000002E-2</v>
+      </c>
+      <c r="F83">
+        <v>0.64426700000000003</v>
+      </c>
+      <c r="G83">
+        <v>4.2435399999999998E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>83</v>
+        <v>8300</v>
       </c>
       <c r="B84">
-        <v>0.66974599999999995</v>
+        <v>0.64491799999999999</v>
       </c>
       <c r="C84">
-        <v>0.211205</v>
+        <v>1.7754800000000001E-2</v>
       </c>
       <c r="D84">
-        <v>0.69400499999999998</v>
+        <v>0.65658000000000005</v>
       </c>
       <c r="E84">
-        <v>0.19094700000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.3885700000000002E-2</v>
+      </c>
+      <c r="F84">
+        <v>0.63465400000000005</v>
+      </c>
+      <c r="G84">
+        <v>3.38006E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>84</v>
+        <v>8400</v>
       </c>
       <c r="B85">
-        <v>0.65718799999999999</v>
+        <v>0.64620200000000005</v>
       </c>
       <c r="C85">
-        <v>0.21556800000000001</v>
+        <v>1.6758100000000001E-2</v>
       </c>
       <c r="D85">
-        <v>0.69145100000000004</v>
+        <v>0.66696800000000001</v>
       </c>
       <c r="E85">
-        <v>0.19089400000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.5700100000000002E-2</v>
+      </c>
+      <c r="F85">
+        <v>0.632575</v>
+      </c>
+      <c r="G85">
+        <v>3.1464100000000002E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>85</v>
+        <v>8500</v>
       </c>
       <c r="B86">
-        <v>0.66919300000000004</v>
+        <v>0.63793800000000001</v>
       </c>
       <c r="C86">
-        <v>0.21554899999999999</v>
+        <v>1.6420400000000002E-2</v>
       </c>
       <c r="D86">
-        <v>0.679539</v>
+        <v>0.68351099999999998</v>
       </c>
       <c r="E86">
-        <v>0.19392400000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4.2762000000000001E-2</v>
+      </c>
+      <c r="F86">
+        <v>0.62775099999999995</v>
+      </c>
+      <c r="G86">
+        <v>4.6995799999999997E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>86</v>
+        <v>8600</v>
       </c>
       <c r="B87">
-        <v>0.66657</v>
+        <v>0.64548300000000003</v>
       </c>
       <c r="C87">
-        <v>0.210892</v>
+        <v>1.2111500000000001E-2</v>
       </c>
       <c r="D87">
-        <v>0.68401599999999996</v>
+        <v>0.69393499999999997</v>
       </c>
       <c r="E87">
-        <v>0.190635</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.4024499999999999E-2</v>
+      </c>
+      <c r="F87">
+        <v>0.65999099999999999</v>
+      </c>
+      <c r="G87">
+        <v>5.5645600000000003E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>87</v>
+        <v>8700</v>
       </c>
       <c r="B88">
-        <v>0.668327</v>
+        <v>0.63944100000000004</v>
       </c>
       <c r="C88">
-        <v>0.20990800000000001</v>
+        <v>1.6473100000000001E-2</v>
       </c>
       <c r="D88">
-        <v>0.68796500000000005</v>
+        <v>0.68986700000000001</v>
       </c>
       <c r="E88">
-        <v>0.19320999999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.5703699999999998E-2</v>
+      </c>
+      <c r="F88">
+        <v>0.66299799999999998</v>
+      </c>
+      <c r="G88">
+        <v>6.0882800000000001E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>88</v>
+        <v>8800</v>
       </c>
       <c r="B89">
-        <v>0.666991</v>
+        <v>0.63864200000000004</v>
       </c>
       <c r="C89">
-        <v>0.214641</v>
+        <v>1.7276300000000001E-2</v>
       </c>
       <c r="D89">
-        <v>0.67852299999999999</v>
+        <v>0.68738900000000003</v>
       </c>
       <c r="E89">
-        <v>0.19389899999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.2674799999999997E-2</v>
+      </c>
+      <c r="F89">
+        <v>0.66491199999999995</v>
+      </c>
+      <c r="G89">
+        <v>7.1086899999999995E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>89</v>
+        <v>8900</v>
       </c>
       <c r="B90">
-        <v>0.65957900000000003</v>
+        <v>0.64308500000000002</v>
       </c>
       <c r="C90">
-        <v>0.21399199999999999</v>
+        <v>1.6684000000000001E-2</v>
       </c>
       <c r="D90">
-        <v>0.66653499999999999</v>
+        <v>0.69026900000000002</v>
       </c>
       <c r="E90">
-        <v>0.19655400000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.4705399999999997E-2</v>
+      </c>
+      <c r="F90">
+        <v>0.65595099999999995</v>
+      </c>
+      <c r="G90">
+        <v>7.2704599999999994E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>90</v>
+        <v>9000</v>
       </c>
       <c r="B91">
-        <v>0.66104300000000005</v>
+        <v>0.63502800000000004</v>
       </c>
       <c r="C91">
-        <v>0.215563</v>
+        <v>2.54846E-2</v>
       </c>
       <c r="D91">
-        <v>0.65969900000000004</v>
+        <v>0.68279699999999999</v>
       </c>
       <c r="E91">
-        <v>0.20468500000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.4721799999999997E-2</v>
+      </c>
+      <c r="F91">
+        <v>0.63488199999999995</v>
+      </c>
+      <c r="G91">
+        <v>8.5072200000000001E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>91</v>
+        <v>9100</v>
       </c>
       <c r="B92">
-        <v>0.67443600000000004</v>
+        <v>0.63083500000000003</v>
       </c>
       <c r="C92">
-        <v>0.21457000000000001</v>
+        <v>2.8479600000000001E-2</v>
       </c>
       <c r="D92">
-        <v>0.65843399999999996</v>
+        <v>0.68009399999999998</v>
       </c>
       <c r="E92">
-        <v>0.202127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4.2197999999999999E-2</v>
+      </c>
+      <c r="F92">
+        <v>0.68530999999999997</v>
+      </c>
+      <c r="G92">
+        <v>9.3474699999999994E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>92</v>
+        <v>9200</v>
       </c>
       <c r="B93">
-        <v>0.67186999999999997</v>
+        <v>0.62353499999999995</v>
       </c>
       <c r="C93">
-        <v>0.21496199999999999</v>
+        <v>3.6466800000000001E-2</v>
       </c>
       <c r="D93">
-        <v>0.65247599999999994</v>
+        <v>0.67630000000000001</v>
       </c>
       <c r="E93">
-        <v>0.20291600000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4.4533799999999998E-2</v>
+      </c>
+      <c r="F93">
+        <v>0.67961099999999997</v>
+      </c>
+      <c r="G93">
+        <v>9.7043199999999996E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>93</v>
+        <v>9300</v>
       </c>
       <c r="B94">
-        <v>0.66726700000000005</v>
+        <v>0.63955399999999996</v>
       </c>
       <c r="C94">
-        <v>0.219637</v>
+        <v>5.0549400000000001E-2</v>
       </c>
       <c r="D94">
-        <v>0.65023600000000004</v>
+        <v>0.68650100000000003</v>
       </c>
       <c r="E94">
-        <v>0.21107999999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4.8156499999999998E-2</v>
+      </c>
+      <c r="F94">
+        <v>0.67095499999999997</v>
+      </c>
+      <c r="G94">
+        <v>0.10292800000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>94</v>
+        <v>9400</v>
       </c>
       <c r="B95">
-        <v>0.65331799999999995</v>
+        <v>0.64780400000000005</v>
       </c>
       <c r="C95">
-        <v>0.214444</v>
+        <v>4.6542899999999998E-2</v>
       </c>
       <c r="D95">
-        <v>0.64057900000000001</v>
+        <v>0.67903500000000006</v>
       </c>
       <c r="E95">
-        <v>0.212149</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.3204799999999997E-2</v>
+      </c>
+      <c r="F95">
+        <v>0.67584200000000005</v>
+      </c>
+      <c r="G95">
+        <v>0.10376000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>95</v>
+        <v>9500</v>
       </c>
       <c r="B96">
-        <v>0.66051400000000005</v>
+        <v>0.64963700000000002</v>
       </c>
       <c r="C96">
-        <v>0.21640599999999999</v>
+        <v>3.1646800000000003E-2</v>
       </c>
       <c r="D96">
-        <v>0.63839100000000004</v>
+        <v>0.68237599999999998</v>
       </c>
       <c r="E96">
-        <v>0.21123800000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.2833400000000003E-2</v>
+      </c>
+      <c r="F96">
+        <v>0.69181400000000004</v>
+      </c>
+      <c r="G96">
+        <v>9.2080300000000004E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>96</v>
+        <v>9600</v>
       </c>
       <c r="B97">
-        <v>0.66312099999999996</v>
+        <v>0.65502099999999996</v>
       </c>
       <c r="C97">
-        <v>0.21577399999999999</v>
+        <v>2.33236E-2</v>
       </c>
       <c r="D97">
-        <v>0.62865000000000004</v>
+        <v>0.69717200000000001</v>
       </c>
       <c r="E97">
-        <v>0.22101499999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4.5664299999999998E-2</v>
+      </c>
+      <c r="F97">
+        <v>0.65003299999999997</v>
+      </c>
+      <c r="G97">
+        <v>7.7719999999999997E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>97</v>
+        <v>9700</v>
       </c>
       <c r="B98">
-        <v>0.66486500000000004</v>
+        <v>0.66130800000000001</v>
       </c>
       <c r="C98">
-        <v>0.21117900000000001</v>
+        <v>1.7763500000000002E-2</v>
       </c>
       <c r="D98">
-        <v>0.64736899999999997</v>
+        <v>0.67780700000000005</v>
       </c>
       <c r="E98">
-        <v>0.21664</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.0500299999999998E-2</v>
+      </c>
+      <c r="F98">
+        <v>0.63237699999999997</v>
+      </c>
+      <c r="G98">
+        <v>8.5050299999999995E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>98</v>
+        <v>9800</v>
       </c>
       <c r="B99">
-        <v>0.67633100000000002</v>
+        <v>0.64661000000000002</v>
       </c>
       <c r="C99">
-        <v>0.213532</v>
+        <v>1.7026099999999999E-2</v>
       </c>
       <c r="D99">
-        <v>0.64167700000000005</v>
+        <v>0.67575600000000002</v>
       </c>
       <c r="E99">
-        <v>0.22090799999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4.8743700000000001E-2</v>
+      </c>
+      <c r="F99">
+        <v>0.65154699999999999</v>
+      </c>
+      <c r="G99">
+        <v>7.2794899999999996E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>99</v>
+        <v>9900</v>
       </c>
       <c r="B100">
-        <v>0.68044199999999999</v>
+        <v>0.64163099999999995</v>
       </c>
       <c r="C100">
-        <v>0.20829900000000001</v>
+        <v>8.3909699999999993E-3</v>
       </c>
       <c r="D100">
-        <v>0.64318399999999998</v>
+        <v>0.671983</v>
       </c>
       <c r="E100">
-        <v>0.221528</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.48375E-2</v>
+      </c>
+      <c r="F100">
+        <v>0.68671300000000002</v>
+      </c>
+      <c r="G100">
+        <v>8.18662E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B101">
-        <v>0.67752999999999997</v>
+        <v>0.64441700000000002</v>
       </c>
       <c r="C101">
-        <v>0.20852899999999999</v>
+        <v>1.2936400000000001E-2</v>
       </c>
       <c r="D101">
-        <v>0.659335</v>
+        <v>0.667987</v>
       </c>
       <c r="E101">
-        <v>0.21555299999999999</v>
+        <v>3.8440700000000001E-2</v>
+      </c>
+      <c r="F101">
+        <v>0.66108100000000003</v>
+      </c>
+      <c r="G101">
+        <v>7.5207899999999994E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Model 0.1.xlsx
+++ b/Data/Model 0.1.xlsx
@@ -2,28 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSE-Education\Documents\Visual Studio 2015\Projects\Cooperation\Cooperation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Cooperation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Model 0.1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,24 +526,24 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Berekening" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Kop 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Kop 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Neutraal" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notitie" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ongeldig" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Totaal" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Uitvoer" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -563,9 +559,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -583,7 +579,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -596,14 +592,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="nl-NL"/>
+              <a:rPr lang="nl-NL" sz="2000"/>
               <a:t>Mean</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:rPr lang="nl-NL" sz="2000" baseline="0"/>
               <a:t> values</a:t>
             </a:r>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="nl-NL" sz="2000"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -621,7 +617,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1293,7 +1289,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4FC8-4219-A902-455916D23A0A}"/>
             </c:ext>
@@ -1949,7 +1945,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4FC8-4219-A902-455916D23A0A}"/>
             </c:ext>
@@ -2605,7 +2601,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4FC8-4219-A902-455916D23A0A}"/>
             </c:ext>
@@ -2619,11 +2615,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1976841263"/>
-        <c:axId val="1976843343"/>
+        <c:axId val="411376744"/>
+        <c:axId val="411377136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1976841263"/>
+        <c:axId val="411376744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -2644,6 +2640,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1400"/>
+                  <a:t>Generation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2666,7 +2718,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2681,12 +2733,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1976843343"/>
+        <c:crossAx val="411377136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1976843343"/>
+        <c:axId val="411377136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2706,6 +2758,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1200"/>
+                  <a:t>Tendency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1200" baseline="0"/>
+                  <a:t> to cooperate </a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2728,7 +2841,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2743,7 +2856,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1976841263"/>
+        <c:crossAx val="411376744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2755,38 +2868,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2825,9 +2906,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2845,7 +2926,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2858,7 +2939,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="nl-NL"/>
+              <a:rPr lang="nl-NL" sz="2000"/>
               <a:t>Standard deviations</a:t>
             </a:r>
           </a:p>
@@ -2878,7 +2959,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3550,7 +3631,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8420-452A-BF73-DA0307D39C48}"/>
             </c:ext>
@@ -4206,7 +4287,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8420-452A-BF73-DA0307D39C48}"/>
             </c:ext>
@@ -4862,7 +4943,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8420-452A-BF73-DA0307D39C48}"/>
             </c:ext>
@@ -4876,11 +4957,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1979491919"/>
-        <c:axId val="1979492335"/>
+        <c:axId val="411388896"/>
+        <c:axId val="411387328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1979491919"/>
+        <c:axId val="411388896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -4901,6 +4982,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Generation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4923,7 +5060,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4938,12 +5075,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1979492335"/>
+        <c:crossAx val="411387328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1979492335"/>
+        <c:axId val="411387328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4963,6 +5100,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1200"/>
+                  <a:t>Tendency to cooperate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4985,7 +5178,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5000,7 +5193,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1979491919"/>
+        <c:crossAx val="411388896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5012,38 +5205,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6527,9 +6688,9 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -6552,7 +6713,7 @@
         <v>5.7731600000000001E-15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -6575,7 +6736,7 @@
         <v>8.4646099999999991E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>200</v>
       </c>
@@ -6598,7 +6759,7 @@
         <v>1.5874099999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>300</v>
       </c>
@@ -6621,7 +6782,7 @@
         <v>1.41125E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>400</v>
       </c>
@@ -6644,7 +6805,7 @@
         <v>1.51798E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>500</v>
       </c>
@@ -6667,7 +6828,7 @@
         <v>1.8264900000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>600</v>
       </c>
@@ -6690,7 +6851,7 @@
         <v>1.7574099999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>700</v>
       </c>
@@ -6713,7 +6874,7 @@
         <v>1.9202199999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>800</v>
       </c>
@@ -6736,7 +6897,7 @@
         <v>2.19513E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>900</v>
       </c>
@@ -6759,7 +6920,7 @@
         <v>2.5743599999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -6782,7 +6943,7 @@
         <v>3.5051400000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1100</v>
       </c>
@@ -6805,7 +6966,7 @@
         <v>2.4986499999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1200</v>
       </c>
@@ -6828,7 +6989,7 @@
         <v>2.3952000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1300</v>
       </c>
@@ -6851,7 +7012,7 @@
         <v>2.4473600000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1400</v>
       </c>
@@ -6874,7 +7035,7 @@
         <v>2.7340400000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -6897,7 +7058,7 @@
         <v>2.6215599999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -6920,7 +7081,7 @@
         <v>2.60962E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1700</v>
       </c>
@@ -6943,7 +7104,7 @@
         <v>1.7581099999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1800</v>
       </c>
@@ -6966,7 +7127,7 @@
         <v>1.7800900000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1900</v>
       </c>
@@ -6989,7 +7150,7 @@
         <v>1.7529099999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -7012,7 +7173,7 @@
         <v>2.0099800000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2100</v>
       </c>
@@ -7035,7 +7196,7 @@
         <v>1.72462E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2200</v>
       </c>
@@ -7058,7 +7219,7 @@
         <v>1.95858E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2300</v>
       </c>
@@ -7081,7 +7242,7 @@
         <v>2.49272E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2400</v>
       </c>
@@ -7104,7 +7265,7 @@
         <v>2.0925099999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2500</v>
       </c>
@@ -7127,7 +7288,7 @@
         <v>1.93067E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2600</v>
       </c>
@@ -7150,7 +7311,7 @@
         <v>1.8803899999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2700</v>
       </c>
@@ -7173,7 +7334,7 @@
         <v>1.93422E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2800</v>
       </c>
@@ -7196,7 +7357,7 @@
         <v>1.9656699999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2900</v>
       </c>
@@ -7219,7 +7380,7 @@
         <v>2.4384699999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -7242,7 +7403,7 @@
         <v>2.5363799999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3100</v>
       </c>
@@ -7265,7 +7426,7 @@
         <v>2.4873800000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3200</v>
       </c>
@@ -7288,7 +7449,7 @@
         <v>2.6528099999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3300</v>
       </c>
@@ -7311,7 +7472,7 @@
         <v>2.2537399999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3400</v>
       </c>
@@ -7334,7 +7495,7 @@
         <v>2.4596400000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3500</v>
       </c>
@@ -7357,7 +7518,7 @@
         <v>2.6198699999999998E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3600</v>
       </c>
@@ -7380,7 +7541,7 @@
         <v>3.5970000000000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3700</v>
       </c>
@@ -7403,7 +7564,7 @@
         <v>3.7177000000000002E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3800</v>
       </c>
@@ -7426,7 +7587,7 @@
         <v>3.9765300000000003E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3900</v>
       </c>
@@ -7449,7 +7610,7 @@
         <v>4.3465700000000003E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4000</v>
       </c>
@@ -7472,7 +7633,7 @@
         <v>4.2180799999999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4100</v>
       </c>
@@ -7495,7 +7656,7 @@
         <v>4.73803E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4200</v>
       </c>
@@ -7518,7 +7679,7 @@
         <v>5.3852400000000002E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4300</v>
       </c>
@@ -7541,7 +7702,7 @@
         <v>5.8587500000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4400</v>
       </c>
@@ -7564,7 +7725,7 @@
         <v>6.1093099999999997E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4500</v>
       </c>
@@ -7587,7 +7748,7 @@
         <v>6.4336699999999997E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4600</v>
       </c>
@@ -7610,7 +7771,7 @@
         <v>5.6806700000000002E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4700</v>
       </c>
@@ -7633,7 +7794,7 @@
         <v>5.7029900000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4800</v>
       </c>
@@ -7656,7 +7817,7 @@
         <v>6.1602700000000003E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4900</v>
       </c>
@@ -7679,7 +7840,7 @@
         <v>6.87199E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5000</v>
       </c>
@@ -7702,7 +7863,7 @@
         <v>6.6432099999999994E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5100</v>
       </c>
@@ -7725,7 +7886,7 @@
         <v>6.6209000000000004E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5200</v>
       </c>
@@ -7748,7 +7909,7 @@
         <v>6.0022800000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5300</v>
       </c>
@@ -7771,7 +7932,7 @@
         <v>3.99908E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5400</v>
       </c>
@@ -7794,7 +7955,7 @@
         <v>1.9086700000000002E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5500</v>
       </c>
@@ -7817,7 +7978,7 @@
         <v>1.8325899999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5600</v>
       </c>
@@ -7840,7 +8001,7 @@
         <v>2.1244800000000001E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5700</v>
       </c>
@@ -7863,7 +8024,7 @@
         <v>1.9899400000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5800</v>
       </c>
@@ -7886,7 +8047,7 @@
         <v>1.7425400000000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5900</v>
       </c>
@@ -7909,7 +8070,7 @@
         <v>2.42122E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>6000</v>
       </c>
@@ -7932,7 +8093,7 @@
         <v>1.6650600000000002E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>6100</v>
       </c>
@@ -7955,7 +8116,7 @@
         <v>1.6190300000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>6200</v>
       </c>
@@ -7978,7 +8139,7 @@
         <v>2.0209499999999998E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6300</v>
       </c>
@@ -8001,7 +8162,7 @@
         <v>1.678E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6400</v>
       </c>
@@ -8024,7 +8185,7 @@
         <v>1.98488E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>6500</v>
       </c>
@@ -8047,7 +8208,7 @@
         <v>1.6761600000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6600</v>
       </c>
@@ -8070,7 +8231,7 @@
         <v>2.0522200000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>6700</v>
       </c>
@@ -8093,7 +8254,7 @@
         <v>1.9692600000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>6800</v>
       </c>
@@ -8116,7 +8277,7 @@
         <v>1.8795599999999999E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6900</v>
       </c>
@@ -8139,7 +8300,7 @@
         <v>1.96606E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>7000</v>
       </c>
@@ -8162,7 +8323,7 @@
         <v>2.0551799999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>7100</v>
       </c>
@@ -8185,7 +8346,7 @@
         <v>1.57524E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>7200</v>
       </c>
@@ -8208,7 +8369,7 @@
         <v>1.8104700000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>7300</v>
       </c>
@@ -8231,7 +8392,7 @@
         <v>1.7748699999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>7400</v>
       </c>
@@ -8254,7 +8415,7 @@
         <v>2.19075E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>7500</v>
       </c>
@@ -8277,7 +8438,7 @@
         <v>2.25676E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>7600</v>
       </c>
@@ -8300,7 +8461,7 @@
         <v>2.1946299999999998E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7700</v>
       </c>
@@ -8323,7 +8484,7 @@
         <v>1.9426100000000002E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>7800</v>
       </c>
@@ -8346,7 +8507,7 @@
         <v>2.15225E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>7900</v>
       </c>
@@ -8369,7 +8530,7 @@
         <v>2.8676900000000002E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>8000</v>
       </c>
@@ -8392,7 +8553,7 @@
         <v>3.6902999999999998E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>8100</v>
       </c>
@@ -8415,7 +8576,7 @@
         <v>3.8155599999999998E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>8200</v>
       </c>
@@ -8438,7 +8599,7 @@
         <v>4.2435399999999998E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>8300</v>
       </c>
@@ -8461,7 +8622,7 @@
         <v>3.38006E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>8400</v>
       </c>
@@ -8484,7 +8645,7 @@
         <v>3.1464100000000002E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>8500</v>
       </c>
@@ -8507,7 +8668,7 @@
         <v>4.6995799999999997E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>8600</v>
       </c>
@@ -8530,7 +8691,7 @@
         <v>5.5645600000000003E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>8700</v>
       </c>
@@ -8553,7 +8714,7 @@
         <v>6.0882800000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>8800</v>
       </c>
@@ -8576,7 +8737,7 @@
         <v>7.1086899999999995E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>8900</v>
       </c>
@@ -8599,7 +8760,7 @@
         <v>7.2704599999999994E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>9000</v>
       </c>
@@ -8622,7 +8783,7 @@
         <v>8.5072200000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>9100</v>
       </c>
@@ -8645,7 +8806,7 @@
         <v>9.3474699999999994E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>9200</v>
       </c>
@@ -8668,7 +8829,7 @@
         <v>9.7043199999999996E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>9300</v>
       </c>
@@ -8691,7 +8852,7 @@
         <v>0.10292800000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>9400</v>
       </c>
@@ -8714,7 +8875,7 @@
         <v>0.10376000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>9500</v>
       </c>
@@ -8737,7 +8898,7 @@
         <v>9.2080300000000004E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>9600</v>
       </c>
@@ -8760,7 +8921,7 @@
         <v>7.7719999999999997E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>9700</v>
       </c>
@@ -8783,7 +8944,7 @@
         <v>8.5050299999999995E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>9800</v>
       </c>
@@ -8806,7 +8967,7 @@
         <v>7.2794899999999996E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>9900</v>
       </c>
@@ -8829,7 +8990,7 @@
         <v>8.18662E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>10000</v>
       </c>

--- a/Data/Model 0.1.xlsx
+++ b/Data/Model 0.1.xlsx
@@ -642,6 +642,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>95% cooperative </c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -1298,6 +1301,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>5% cooperative </c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -1954,6 +1960,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>67% cooperative </c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -2615,11 +2624,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="411376744"/>
-        <c:axId val="411377136"/>
+        <c:axId val="344244016"/>
+        <c:axId val="344248720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="411376744"/>
+        <c:axId val="344244016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -2733,12 +2742,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411377136"/>
+        <c:crossAx val="344248720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="411377136"/>
+        <c:axId val="344248720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2856,7 +2865,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411376744"/>
+        <c:crossAx val="344244016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2868,6 +2877,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2984,6 +3025,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>95% cooperative </c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -3640,6 +3684,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>5% cooperative </c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -4296,6 +4343,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>67% cooperative </c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -4957,11 +5007,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="411388896"/>
-        <c:axId val="411387328"/>
+        <c:axId val="344241664"/>
+        <c:axId val="344243232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="411388896"/>
+        <c:axId val="344241664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -5075,12 +5125,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411387328"/>
+        <c:crossAx val="344243232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="411387328"/>
+        <c:axId val="344243232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5193,7 +5243,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411388896"/>
+        <c:crossAx val="344241664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5205,6 +5255,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6360,14 +6442,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>393247</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>21317</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>181337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>90261</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2268</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>162288</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6388,16 +6470,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3176</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14060</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>551816</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>181700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>307976</xdr:colOff>
+      <xdr:colOff>247016</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>176439</xdr:rowOff>
+      <xdr:rowOff>161199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6685,7 +6767,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Model 0.1.xlsx
+++ b/Data/Model 0.1.xlsx
@@ -593,13 +593,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-NL" sz="2000"/>
-              <a:t>Mean</a:t>
+              <a:t>No responsives: Pmean</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="nl-NL" sz="2000" baseline="0"/>
-              <a:t> values</a:t>
-            </a:r>
-            <a:endParaRPr lang="nl-NL" sz="2000"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2624,11 +2619,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="344244016"/>
-        <c:axId val="344248720"/>
+        <c:axId val="348135664"/>
+        <c:axId val="348138800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="344244016"/>
+        <c:axId val="348135664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -2742,12 +2737,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344248720"/>
+        <c:crossAx val="348138800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="344248720"/>
+        <c:axId val="348138800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2865,7 +2860,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344244016"/>
+        <c:crossAx val="348135664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2981,8 +2976,21 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-NL" sz="2000"/>
-              <a:t>Standard deviations</a:t>
+              <a:t>No</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="2000" baseline="0"/>
+              <a:t> responsives: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="2000"/>
+              <a:t>Stand. Dev.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="2000" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL" sz="2000"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5007,11 +5015,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="344241664"/>
-        <c:axId val="344243232"/>
+        <c:axId val="348136840"/>
+        <c:axId val="348137232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="344241664"/>
+        <c:axId val="348136840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -5125,12 +5133,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344243232"/>
+        <c:crossAx val="348137232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="344243232"/>
+        <c:axId val="348137232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5243,7 +5251,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344241664"/>
+        <c:crossAx val="348136840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>

--- a/Data/Model 0.1.xlsx
+++ b/Data/Model 0.1.xlsx
@@ -593,7 +593,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-NL" sz="2000"/>
-              <a:t>No responsives: Pmean</a:t>
+              <a:t>No responsives, P0 is continues</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2619,11 +2619,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348135664"/>
-        <c:axId val="348138800"/>
+        <c:axId val="349985296"/>
+        <c:axId val="349988040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348135664"/>
+        <c:axId val="349985296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -2737,12 +2737,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348138800"/>
+        <c:crossAx val="349988040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348138800"/>
+        <c:axId val="349988040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2860,7 +2860,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348135664"/>
+        <c:crossAx val="349985296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5015,11 +5015,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348136840"/>
-        <c:axId val="348137232"/>
+        <c:axId val="349987648"/>
+        <c:axId val="349988432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348136840"/>
+        <c:axId val="349987648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -5133,12 +5133,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348137232"/>
+        <c:crossAx val="349988432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348137232"/>
+        <c:axId val="349988432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5251,7 +5251,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348136840"/>
+        <c:crossAx val="349987648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6449,15 +6449,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>393247</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>181337</xdr:rowOff>
+      <xdr:colOff>492307</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>90261</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>162288</xdr:rowOff>
+      <xdr:colOff>189321</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9888</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6775,7 +6775,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
